--- a/public/build/excel/HOSO.xlsx
+++ b/public/build/excel/HOSO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>Mã Hồ Sơ</t>
   </si>
@@ -80,42 +80,51 @@
     <t>0878059847</t>
   </si>
   <si>
+    <t>anzyvy2805@gmail.com</t>
+  </si>
+  <si>
+    <t>Chi Bộ 2</t>
+  </si>
+  <si>
+    <t>Khoa Cơ khí Chế tạo máy</t>
+  </si>
+  <si>
+    <t>Loại Hồ Sơ 1</t>
+  </si>
+  <si>
+    <t>Hồ sơ thanh toán</t>
+  </si>
+  <si>
+    <t>Lê Hữu Phước</t>
+  </si>
+  <si>
+    <t>Gmail</t>
+  </si>
+  <si>
+    <t>Đã nhận lại Hồ sơ từ VPĐU</t>
+  </si>
+  <si>
+    <t>2023-08-04 00:09:02</t>
+  </si>
+  <si>
+    <t>2023-08-05 14:52:12</t>
+  </si>
+  <si>
+    <t>2023-08-05 14:52:30</t>
+  </si>
+  <si>
+    <t>2023-08-05 14:52:42</t>
+  </si>
+  <si>
+    <t>ACE80D3BF5</t>
+  </si>
+  <si>
     <t>tuonglaituoisang0505@gmail.com</t>
   </si>
   <si>
-    <t>Chi Bộ 1</t>
-  </si>
-  <si>
-    <t>Khoa Cơ khí Chế tạo máy</t>
-  </si>
-  <si>
-    <t>Loại Hồ Sơ 1</t>
-  </si>
-  <si>
-    <t>Hồ sơ thanh toán</t>
-  </si>
-  <si>
-    <t>ê</t>
-  </si>
-  <si>
-    <t>Gmail</t>
-  </si>
-  <si>
     <t>Đã nhận hồ sơ</t>
   </si>
   <si>
-    <t>2023-08-04 00:09:02</t>
-  </si>
-  <si>
-    <t>ACE80D3BF5</t>
-  </si>
-  <si>
-    <t>Chi Bộ 2</t>
-  </si>
-  <si>
-    <t>Lê Hữu Phước</t>
-  </si>
-  <si>
     <t>2023-08-04 00:08:57</t>
   </si>
   <si>
@@ -165,9 +174,6 @@
   </si>
   <si>
     <t>Đào Phương Uyên</t>
-  </si>
-  <si>
-    <t>Đã nhận lại Hồ sơ từ VPĐU</t>
   </si>
 </sst>
 </file>
@@ -610,15 +616,25 @@
       <c r="M2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
-      <c r="R2" s="0"/>
+      <c r="N2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>19</v>
@@ -627,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>23</v>
@@ -645,19 +661,19 @@
         <v>1</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>27</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0"/>
       <c r="P3" s="0"/>
@@ -666,43 +682,43 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I4" s="0">
         <v>99</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
@@ -712,43 +728,43 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I5" s="0">
         <v>99</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N5" s="0"/>
       <c r="O5" s="0"/>
@@ -758,43 +774,43 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I6" s="0">
         <v>99</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>44</v>
       </c>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
@@ -804,43 +820,43 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I7" s="0">
         <v>99</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>

--- a/public/build/excel/HOSO.xlsx
+++ b/public/build/excel/HOSO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>Mã Hồ Sơ</t>
   </si>
@@ -71,6 +71,48 @@
     <t>Ngày Nhận Lại Hồ Sơ Từ VPĐU</t>
   </si>
   <si>
+    <t>60B71465DB</t>
+  </si>
+  <si>
+    <t>Trần Việt Phước</t>
+  </si>
+  <si>
+    <t>0583217667</t>
+  </si>
+  <si>
+    <t>vietphuocit@gmail.com</t>
+  </si>
+  <si>
+    <t>Chi Bộ 2</t>
+  </si>
+  <si>
+    <t>Khoa Cơ khí Chế tạo máy</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>Hồ sơ gia nhập đoàn viên</t>
+  </si>
+  <si>
+    <t>Lê Hữu Phước</t>
+  </si>
+  <si>
+    <t>Zalo</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa và bổ sung</t>
+  </si>
+  <si>
+    <t>2023-08-05 16:38:56</t>
+  </si>
+  <si>
+    <t>2023-08-05 16:40:24</t>
+  </si>
+  <si>
+    <t>2023-08-05 16:40:59</t>
+  </si>
+  <si>
     <t>1989EE51C5</t>
   </si>
   <si>
@@ -83,21 +125,12 @@
     <t>anzyvy2805@gmail.com</t>
   </si>
   <si>
-    <t>Chi Bộ 2</t>
-  </si>
-  <si>
-    <t>Khoa Cơ khí Chế tạo máy</t>
-  </si>
-  <si>
     <t>Loại Hồ Sơ 1</t>
   </si>
   <si>
     <t>Hồ sơ thanh toán</t>
   </si>
   <si>
-    <t>Lê Hữu Phước</t>
-  </si>
-  <si>
     <t>Gmail</t>
   </si>
   <si>
@@ -113,7 +146,10 @@
     <t>2023-08-05 14:52:30</t>
   </si>
   <si>
-    <t>2023-08-05 14:52:42</t>
+    <t>2023-08-05 16:16:17</t>
+  </si>
+  <si>
+    <t>2023-08-05 16:33:35</t>
   </si>
   <si>
     <t>ACE80D3BF5</t>
@@ -134,34 +170,25 @@
     <t>8DDD714AC6</t>
   </si>
   <si>
-    <t>Trần Việt Phước</t>
-  </si>
-  <si>
-    <t>0583217667</t>
-  </si>
-  <si>
     <t>vietphuocit@gmail.comm</t>
   </si>
   <si>
+    <t>2023-08-02 20:49:12</t>
+  </si>
+  <si>
+    <t>2023-08-05 16:43:39</t>
+  </si>
+  <si>
+    <t>8DDD714AC7</t>
+  </si>
+  <si>
     <t>Chị Bộ 1</t>
   </si>
   <si>
     <t>Đơn Vị 1</t>
   </si>
   <si>
-    <t>Hồ sơ gia nhập đoàn viên</t>
-  </si>
-  <si>
     <t>Facebook</t>
-  </si>
-  <si>
-    <t>Chỉnh sửa và bổ sung</t>
-  </si>
-  <si>
-    <t>2023-08-02 20:49:12</t>
-  </si>
-  <si>
-    <t>8DDD714AC7</t>
   </si>
   <si>
     <t>8DDD714AC8</t>
@@ -512,7 +539,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,7 +629,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="0">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>26</v>
@@ -626,24 +653,22 @@
         <v>31</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="R2" s="0"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>22</v>
@@ -652,10 +677,10 @@
         <v>23</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I3" s="0">
         <v>1</v>
@@ -664,63 +689,73 @@
         <v>26</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
-      <c r="R3" s="0"/>
+        <v>41</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I4" s="0">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>26</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="0"/>
+        <v>48</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>49</v>
+      </c>
       <c r="O4" s="0"/>
       <c r="P4" s="0"/>
       <c r="Q4" s="0"/>
@@ -728,28 +763,28 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I5" s="0">
         <v>99</v>
@@ -758,44 +793,54 @@
         <v>26</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="0"/>
-      <c r="O5" s="0"/>
-      <c r="P5" s="0"/>
-      <c r="Q5" s="0"/>
-      <c r="R5" s="0"/>
+        <v>52</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I6" s="0">
         <v>99</v>
@@ -804,13 +849,13 @@
         <v>26</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
@@ -820,49 +865,95 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I7" s="0">
         <v>99</v>
       </c>
       <c r="J7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
       <c r="P7" s="0"/>
       <c r="Q7" s="0"/>
       <c r="R7" s="0"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="0">
+        <v>99</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/public/build/excel/HOSO.xlsx
+++ b/public/build/excel/HOSO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="878">
   <si>
     <t>Mã Hồ Sơ</t>
   </si>
@@ -71,136 +71,2927 @@
     <t>Ngày Nhận Lại Hồ Sơ Từ VPĐU</t>
   </si>
   <si>
-    <t>60B71465DB</t>
-  </si>
-  <si>
-    <t>Trần Việt Phước</t>
-  </si>
-  <si>
-    <t>0583217667</t>
-  </si>
-  <si>
-    <t>vietphuocit@gmail.com</t>
-  </si>
-  <si>
-    <t>Chi Bộ 2</t>
+    <t>3B28BB2B34</t>
+  </si>
+  <si>
+    <t>Nguyễn Diệu Linh</t>
+  </si>
+  <si>
+    <t>0386310719</t>
+  </si>
+  <si>
+    <t>nguyendieulinhvuhoa@gmail.com</t>
+  </si>
+  <si>
+    <t>Chi bộ Sinh viên 7</t>
+  </si>
+  <si>
+    <t>Khoa Ngoại ngữ</t>
+  </si>
+  <si>
+    <t>Hồ sơ tiếp nhận đảng viên (chuyển đến)</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Nguyễn Diệu Linh; MSSV: 23131068 - Sinh viên ngành Ngôn ngữ anh - Khoa Ngoại ngữ
+Chi bộ sinh hoạt: Chi bộ sinh viên 7
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ Thầy Phạm Văn Khoa - SĐT &amp; Zalo: 0918004457
+2) Đồng chí Phó Bí Thư chi bộ Chị Nguyễn Thị Minh Thư SĐT &amp; Zalo - 0837910802</t>
+  </si>
+  <si>
+    <t>Đ/c Vương Trọng Nghĩa</t>
+  </si>
+  <si>
+    <t>Tiếp nhận trực tiếp tại Văn Phòng</t>
+  </si>
+  <si>
+    <t>Hoàn tất hồ sơ và lưu tại Văn phòng Đảng ủy</t>
+  </si>
+  <si>
+    <t>2023-11-23 08:41:20</t>
+  </si>
+  <si>
+    <t>2023-11-23 08:49:17</t>
+  </si>
+  <si>
+    <t>2023-11-27 11:20:55</t>
+  </si>
+  <si>
+    <t>DFEE66AA0B</t>
+  </si>
+  <si>
+    <t>Đặng Thị Kim Ngân</t>
+  </si>
+  <si>
+    <t>0522194924</t>
+  </si>
+  <si>
+    <t>dangthikimngan03012005@gmail.com</t>
+  </si>
+  <si>
+    <t>Chi bộ Sinh viên 5</t>
+  </si>
+  <si>
+    <t>Khoa Xây Dựng</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Đặng Thị Kim Ngân
+MSSV: 23149257 - Sinh viên Công nghệ Kỹ thuật Công trình Xây dựng - Khoa Xây dựng
+Chi bộ sinh hoạt: Chi bộ sinh viên 5
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ Thầy Nguyễn Thiện Dinh - 0353040909 - Email: dinhnt@hcmute.edu.vn
+2) Đồng chí Phó Bí Thư chi bộ Thầy Lê Phương Bình - 0908520732 - Email: binhlp@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>2023-11-23 08:33:46</t>
+  </si>
+  <si>
+    <t>2023-11-23 08:45:42</t>
+  </si>
+  <si>
+    <t>2023-11-24 17:22:05</t>
+  </si>
+  <si>
+    <t>9FF24EFC42</t>
+  </si>
+  <si>
+    <t>Cao Quốc Huy</t>
+  </si>
+  <si>
+    <t>0962641524</t>
+  </si>
+  <si>
+    <t>huyc9526@gmail.com</t>
+  </si>
+  <si>
+    <t>Chi bộ Sinh viên 4</t>
+  </si>
+  <si>
+    <t>Khoa Khoa học Ứng dụng</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Cao Quốc Huy; MSSV: 23130019 - Sinh viên Công nghệ Vật liệu - Khoa Khoa học Ứng dụng
+Chi bộ sinh hoạt: Chi bộ sinh viên 4
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ Thầy Nguyễn Hữu Trung - SĐT &amp; Zalo: 0908617108 
+2) Đồng chí Phó Bí Thư chi bộ Anh Nguyễn Như Tú - 0339217372</t>
+  </si>
+  <si>
+    <t>2023-11-23 08:24:50</t>
+  </si>
+  <si>
+    <t>2023-11-23 08:44:36</t>
+  </si>
+  <si>
+    <t>2023-11-23 15:09:51</t>
+  </si>
+  <si>
+    <t>1695C863CD</t>
+  </si>
+  <si>
+    <t>Huỳnh Ngọc Tài</t>
+  </si>
+  <si>
+    <t>0397795383</t>
+  </si>
+  <si>
+    <t>huynhngoctai205@gmail.com</t>
+  </si>
+  <si>
+    <t>Khoa Công nghệ Thông tin</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Huỳnh Ngọc Tài; MSSV: 23110305 - Sinh viên Công nghệ thông tin - Khoa Công nghệ Thông tin
+Chi bộ sinh hoạt: Chi bộ sinh viên 4
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ Thầy Nguyễn Hữu Trung - SĐT &amp; Zalo: 0908617108 
+2) Đồng chí Phó Bí Thư chi bộ Anh Nguyễn Như Tú - SĐT &amp; Zalo: 0339217372</t>
+  </si>
+  <si>
+    <t>2023-11-23 08:23:13</t>
+  </si>
+  <si>
+    <t>2023-11-23 08:45:30</t>
+  </si>
+  <si>
+    <t>2023-11-23 15:09:09</t>
+  </si>
+  <si>
+    <t>D9CFC22D35</t>
+  </si>
+  <si>
+    <t>Nguyễn Mạnh Cường</t>
+  </si>
+  <si>
+    <t>0858569173</t>
+  </si>
+  <si>
+    <t>cuongnguyenmanh2005@gmail.com</t>
+  </si>
+  <si>
+    <t>Chi bộ Sinh viên 3</t>
+  </si>
+  <si>
+    <t>Khoa Điện - Điện tử</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Nguyễn Mạnh Cường
+MSSV: 23151218 - Sinh viên ngành Công nghệ kỹ thuật điều khiển và tự động hoá  - Khoa Điện - Điện tử.
+Chi bộ sinh hoạt: Chi bộ sinh viên 3
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ Thầy Nguyễn Phan Thanh - SĐT 090.748.9309
+2) Đồng chí Phó Bí Thư chi bộ - Lê Tấn Kiên - 035.227.8652</t>
+  </si>
+  <si>
+    <t>Tiếp nhận từ Đảng ủy khối</t>
+  </si>
+  <si>
+    <t>2023-11-23 08:15:52</t>
+  </si>
+  <si>
+    <t>2023-11-23 08:44:09</t>
+  </si>
+  <si>
+    <t>2023-11-23 17:18:10</t>
+  </si>
+  <si>
+    <t>B3FE88F429</t>
+  </si>
+  <si>
+    <t>Đào Hồng Anh</t>
+  </si>
+  <si>
+    <t>0356345805</t>
+  </si>
+  <si>
+    <t>honganh20082005@gmail.com</t>
+  </si>
+  <si>
+    <t>Chi bộ Sinh viên 1</t>
   </si>
   <si>
     <t>Khoa Cơ khí Chế tạo máy</t>
   </si>
   <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Đào Hồng Anh; MSSV: 23146171, Ngành: Công nghệ kỹ thuật cơ điện tử, Khoa Cơ khí Chế tạo máy
+Chi bộ sinh hoạt: Chi bộ sinh viên 1
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ Thầy Nguyễn Thanh Tân - SĐT &amp; Zalo: 0938004496
+2) Đồng chí Phó Bí Thư chi bộ Anh Nguyễn Trung Thành SĐT &amp; Zalo - 0383144705</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy đang xử lý hồ sơ</t>
+  </si>
+  <si>
+    <t>2023-11-23 08:07:24</t>
+  </si>
+  <si>
+    <t>2023-11-23 08:43:58</t>
+  </si>
+  <si>
+    <t>2023-11-23 08:44:20</t>
+  </si>
+  <si>
+    <t>EE293627AD</t>
+  </si>
+  <si>
+    <t>Nguyễn Thiện Dinh</t>
+  </si>
+  <si>
+    <t>0353040909</t>
+  </si>
+  <si>
+    <t>dinhnt@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Khoa Cơ khí Động lực</t>
+  </si>
+  <si>
     <t>Khác</t>
   </si>
   <si>
-    <t>Hồ sơ gia nhập đoàn viên</t>
-  </si>
-  <si>
-    <t>Lê Hữu Phước</t>
-  </si>
-  <si>
-    <t>Zalo</t>
-  </si>
-  <si>
-    <t>Chỉnh sửa và bổ sung</t>
-  </si>
-  <si>
-    <t>2023-08-05 16:38:56</t>
-  </si>
-  <si>
-    <t>2023-08-05 16:40:24</t>
-  </si>
-  <si>
-    <t>2023-08-05 16:40:59</t>
-  </si>
-  <si>
-    <t>1989EE51C5</t>
-  </si>
-  <si>
-    <t>Nghia Trong</t>
-  </si>
-  <si>
-    <t>0878059847</t>
-  </si>
-  <si>
-    <t>anzyvy2805@gmail.com</t>
-  </si>
-  <si>
-    <t>Loại Hồ Sơ 1</t>
-  </si>
-  <si>
-    <t>Hồ sơ thanh toán</t>
-  </si>
-  <si>
-    <t>Gmail</t>
-  </si>
-  <si>
-    <t>Đã nhận lại Hồ sơ từ VPĐU</t>
-  </si>
-  <si>
-    <t>2023-08-04 00:09:02</t>
-  </si>
-  <si>
-    <t>2023-08-05 14:52:12</t>
-  </si>
-  <si>
-    <t>2023-08-05 14:52:30</t>
-  </si>
-  <si>
-    <t>2023-08-05 16:16:17</t>
-  </si>
-  <si>
-    <t>2023-08-05 16:33:35</t>
-  </si>
-  <si>
-    <t>ACE80D3BF5</t>
-  </si>
-  <si>
-    <t>tuonglaituoisang0505@gmail.com</t>
-  </si>
-  <si>
-    <t>Đã nhận hồ sơ</t>
-  </si>
-  <si>
-    <t>2023-08-04 00:08:57</t>
-  </si>
-  <si>
-    <t>2023-08-05 10:24:07</t>
-  </si>
-  <si>
-    <t>8DDD714AC6</t>
-  </si>
-  <si>
-    <t>vietphuocit@gmail.comm</t>
-  </si>
-  <si>
-    <t>2023-08-02 20:49:12</t>
-  </si>
-  <si>
-    <t>2023-08-05 16:43:39</t>
-  </si>
-  <si>
-    <t>8DDD714AC7</t>
-  </si>
-  <si>
-    <t>Chị Bộ 1</t>
-  </si>
-  <si>
-    <t>Đơn Vị 1</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>8DDD714AC8</t>
-  </si>
-  <si>
-    <t>Chờ kiểm duyệt</t>
-  </si>
-  <si>
-    <t>8DDD714AC9</t>
-  </si>
-  <si>
-    <t>Đào Phương Uyên</t>
+    <t>Đơn xin ra khỏi Đảng của Đồng chí Lê Văn Triệu</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy đã nhận hồ sơ</t>
+  </si>
+  <si>
+    <t>2023-11-22 14:50:25</t>
+  </si>
+  <si>
+    <t>2023-11-22 14:51:32</t>
+  </si>
+  <si>
+    <t>366E1F87B2</t>
+  </si>
+  <si>
+    <t>Châu Thanh Tùng</t>
+  </si>
+  <si>
+    <t>0981367238</t>
+  </si>
+  <si>
+    <t>chauthanhtung24@gmail.com</t>
+  </si>
+  <si>
+    <t>Hồ sơ đề nghị chuyển sinh hoạt đảng</t>
+  </si>
+  <si>
+    <t>1) Giấy đề nghị chuyển sinh hoạt đảng
+2) Bản kiểm điểm khi chuyển sinh hoạt đảng
+3) Bản kiểm điểm cá nhân từ tháng 01/2023 - 11/2023</t>
+  </si>
+  <si>
+    <t>2023-11-22 14:40:37</t>
+  </si>
+  <si>
+    <t>2023-11-22 14:41:08</t>
+  </si>
+  <si>
+    <t>817F3280B9</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Tân</t>
+  </si>
+  <si>
+    <t>0938004496</t>
+  </si>
+  <si>
+    <t>tannt@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Báo cáo Đi Nước Ngoài</t>
+  </si>
+  <si>
+    <t>Đơn xin đi nước ngoài
+Báo cáo kết quả ra nước ngoài về việc riêng
+Nơi đi: Hàn Quốc
+Thời gian đi: Từ ngày 19/11/2023 - 16/12/2023
+Mục đích, lý do chuyến đi: Bồi dưỡng chuyên môn trong lĩnh vực khuôn mẫu theo QĐ số 2861/QĐ-ĐHSPKT</t>
+  </si>
+  <si>
+    <t>2023-11-16 09:05:16</t>
+  </si>
+  <si>
+    <t>2023-11-16 09:05:34</t>
+  </si>
+  <si>
+    <t>AF4F80DA0D</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Trung</t>
+  </si>
+  <si>
+    <t>0908617108</t>
+  </si>
+  <si>
+    <t>Trungnh@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hồ sơ chuyển sinh hoạt của Đảng viên: Đinh Bách Thông
+Sinh ngày: 31/05/2000 - Quê quán: Bến Tre
+Ngày vào Đảng: 25/6/2018
+Hồ sơ nộp gồm
+1. Giấy đề nghị chuyển sinh hoạt đảng về FPT
+2. Bản tự kiểm điểm khi chuyển sinh hoạt đảng
+3. Bản kiểm điểm 9 tháng năm 2023
+Làm việc tại công ty FPT từ ngày 01/02/2022
+Tốt nghiệp theo quyết định ngày 06/10/2022
+</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Đ/c Phan Công Đức</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy yêu cầu chỉnh sửa và bổ sung hồ sơ</t>
+  </si>
+  <si>
+    <t>2023-11-15 08:50:25</t>
+  </si>
+  <si>
+    <t>2023-11-15 08:54:35</t>
+  </si>
+  <si>
+    <t>2023-11-15 09:02:57</t>
+  </si>
+  <si>
+    <t>6E1F37FE95</t>
+  </si>
+  <si>
+    <t>Lê Đình Phông</t>
+  </si>
+  <si>
+    <t>0979750513</t>
+  </si>
+  <si>
+    <t>phongle.050205@gmail.com</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Lê Đình Phông
+MSSV: 23142048 - Sinh viên Công nghệ Kỹ thuật Điện - Điện tử - Khoa Điện - Điện tử.
+Chi bộ sinh hoạt: Chi bộ sinh viên 3
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ Thầy Nguyễn Phan Thanh - SĐT 090.748.9309
+2) Đồng chí Phó Bí Thư chi bộ - Lê Tấn Kiên - 035.227.8652</t>
+  </si>
+  <si>
+    <t>2023-11-14 18:26:32</t>
+  </si>
+  <si>
+    <t>2023-11-14 18:27:09</t>
+  </si>
+  <si>
+    <t>2023-11-17 16:54:36</t>
+  </si>
+  <si>
+    <t>4B3DFA06ED</t>
+  </si>
+  <si>
+    <t>Trần Vũ Duy Khang</t>
+  </si>
+  <si>
+    <t>0942823665</t>
+  </si>
+  <si>
+    <t>khangtran110205@gmail.com</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Trần Vũ Duy Khang
+MSSV: 23145132 - Sinh viên Công nghệ Kỹ thuật ô tô - Khoa Cơ khí Động lực
+Chi bộ sinh hoạt: Chi bộ sinh viên 5
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ Thầy Nguyễn Thiện Dinh - 0353040909 - Email: dinhnt@hcmute.edu.vn
+2) Đồng chí Phó Bí Thư chi bộ Thầy Lê Phương Bình - 0908520732 - Email: binhlp@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>2023-11-14 18:23:31</t>
+  </si>
+  <si>
+    <t>2023-11-14 18:27:19</t>
+  </si>
+  <si>
+    <t>2023-11-17 16:54:15</t>
+  </si>
+  <si>
+    <t>0AD1EFD657</t>
+  </si>
+  <si>
+    <t>Đặng Thị Kim Trinh</t>
+  </si>
+  <si>
+    <t>0352489283</t>
+  </si>
+  <si>
+    <t>trinhmessi.123456789@gmail.com</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Đặng Thị Kim Trinh
+MSSV: 23149147 - Sinh viên Công nghệ kỹ thuật công trình xây dựng - Khoa Xây Dựng
+Chi bộ sinh hoạt: Chi bộ sinh viên 5
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ Thầy Nguyễn Thiện Dinh - 0353040909 - Email: dinhnt@hcmute.edu.vn
+2) Đồng chí Phó Bí Thư chi bộ Thầy Lê Phương Bình - 0908520732 - Email: binhlp@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>2023-11-14 18:22:18</t>
+  </si>
+  <si>
+    <t>2023-11-14 18:27:33</t>
+  </si>
+  <si>
+    <t>2023-11-17 16:53:53</t>
+  </si>
+  <si>
+    <t>8B73EC77E6</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thùy Dương</t>
+  </si>
+  <si>
+    <t>0862265143</t>
+  </si>
+  <si>
+    <t>duong12022005@gmail.com</t>
+  </si>
+  <si>
+    <t>Chi bộ Sinh viên 6</t>
+  </si>
+  <si>
+    <t>Khoa Kinh tế</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Nguyễn Thị Thùy Dương; MSSV: 23136022 - Sinh viên Kinh doanh Quốc tế - Khoa Kinh tế
+Chi bộ sinh hoạt: Chi bộ sinh viên 6
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ Cô Đào Thị Kim Yến - SĐT &amp; Zalo: 0905113320
+2) Đồng chí Phó Bí Thư chi bộ Chị Lê Kim Ngân SĐT &amp; Zalo: 0937603985</t>
+  </si>
+  <si>
+    <t>2023-11-14 18:19:33</t>
+  </si>
+  <si>
+    <t>2023-11-14 18:28:11</t>
+  </si>
+  <si>
+    <t>2023-11-17 16:53:26</t>
+  </si>
+  <si>
+    <t>2023-11-17 16:53:32</t>
+  </si>
+  <si>
+    <t>A146113B55</t>
+  </si>
+  <si>
+    <t>Trần Bích Khuê</t>
+  </si>
+  <si>
+    <t>0383833537</t>
+  </si>
+  <si>
+    <t>tranbichkhue213@gmail.com</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Trần Bích Khuê; MSSV: 23950006 - Sinh viên Sư phạm Anh - Khoa Ngoại ngữ
+Chi bộ sinh hoạt: Chi bộ sinh viên 7
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ Thầy Phạm Văn Khoa - SĐT &amp; Zalo: 0918004457
+2) Đồng chí Phó Bí Thư chi bộ Chị Nguyễn Thị Minh Thư SĐT &amp; Zalo - 0837910802</t>
+  </si>
+  <si>
+    <t>2023-11-14 18:16:00</t>
+  </si>
+  <si>
+    <t>2023-11-14 18:28:03</t>
+  </si>
+  <si>
+    <t>2023-11-17 16:53:08</t>
+  </si>
+  <si>
+    <t>232FFA8C09</t>
+  </si>
+  <si>
+    <t>Lê Thị Hoài Thanh</t>
+  </si>
+  <si>
+    <t>0394995027</t>
+  </si>
+  <si>
+    <t>lethihoaithanh767@gmail.com</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Lê Thị Hoài Thanh ; MSSV: 23950013 - Sinh viên Sư phạm Tiếng Anh - Khoa Ngoại ngữ
+Chi bộ sinh hoạt: Chi bộ sinh viên 7
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ Thầy Phạm Văn Khoa - SĐT &amp; Zalo: 0918004457
+2) Đồng chí Phó Bí Thư chi bộ Chị Nguyễn Thị Minh Thư SĐT &amp; Zalo - 0837910802</t>
+  </si>
+  <si>
+    <t>2023-11-14 18:14:32</t>
+  </si>
+  <si>
+    <t>2023-11-14 18:27:53</t>
+  </si>
+  <si>
+    <t>2023-11-17 16:52:39</t>
+  </si>
+  <si>
+    <t>A352ACE30E</t>
+  </si>
+  <si>
+    <t>Võ Ngọc Phương Huyền</t>
+  </si>
+  <si>
+    <t>0343945070</t>
+  </si>
+  <si>
+    <t>huyenvo1705@gmail.com</t>
+  </si>
+  <si>
+    <t>Chi bộ 4</t>
+  </si>
+  <si>
+    <t>Khoa Thời trang và Du lịch</t>
+  </si>
+  <si>
+    <t>Hồ sơ công nhận đảng viên chính thức</t>
+  </si>
+  <si>
+    <t>- Giấy chứng nhận lớp Bồi dưỡng LLCT dành cho Đảng viên mới (x1)
+- Bản tự kiểm điểm của Đảng viên dự bị (x1)
+- Bản nhận xét Đảng viên dự bị (x2)
+- Biên bản họp xét của chi đoàn (x1)
+- Biên bản họp xét của Đoàn khoa (x1)
+- Ý kiến nhận của cấp ủy nơi cư trú (x2)
+- Báo cáo giải trình về việc chuyển Đảng chính thức trễ hạn (x3)
+- Nghị quyết đề nghị công nhận đảng viên chính thức (x1)
+- Giấy đề nghị cấp thẻ đảng viên (x1)</t>
+  </si>
+  <si>
+    <t>2023-11-14 09:39:59</t>
+  </si>
+  <si>
+    <t>2023-11-14 09:41:57</t>
+  </si>
+  <si>
+    <t>2023-11-17 16:52:09</t>
+  </si>
+  <si>
+    <t>AA4A00FF8F</t>
+  </si>
+  <si>
+    <t>Đoàn Minh Hiếu</t>
+  </si>
+  <si>
+    <t>0374507310</t>
+  </si>
+  <si>
+    <t>minhhieudoan34@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hồ sơ đề nghị chuyển sinh hoạt đảng của đồng chí Đoàn Minh Hiếu
+Bản tự kiểm điểm khi chuyển sinh hoạt
+Giấy đề nghị chuyển sinh hoạt Đảng
+Biên bản họp chi bộ
+</t>
+  </si>
+  <si>
+    <t>2023-11-13 08:52:31</t>
+  </si>
+  <si>
+    <t>2023-11-13 08:55:17</t>
+  </si>
+  <si>
+    <t>B4F2901F7B</t>
+  </si>
+  <si>
+    <t>trungnh@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Hồ sơ kết nạp đảng</t>
+  </si>
+  <si>
+    <t>Lí lịch của đồng chí Nguyễn Yến Linh</t>
+  </si>
+  <si>
+    <t>2023-11-09 14:07:04</t>
+  </si>
+  <si>
+    <t>2023-11-09 14:07:43</t>
+  </si>
+  <si>
+    <t>2F90B9163A</t>
+  </si>
+  <si>
+    <t>Đào Thanh Phong</t>
+  </si>
+  <si>
+    <t>09014784342</t>
+  </si>
+  <si>
+    <t>dtphong@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Hồ sơ được đảng ủy Khối tiếp nhận và chuyển về trường Đại học Sư phạm Kỹ thuật TP. Hồ Chí Minh (Từ trường ĐH Tôn Đức Thắng chuyển về)</t>
+  </si>
+  <si>
+    <t>2023-11-06 14:27:15</t>
+  </si>
+  <si>
+    <t>2023-11-06 14:37:36</t>
+  </si>
+  <si>
+    <t>2023-11-10 12:51:28</t>
+  </si>
+  <si>
+    <t>9C02C03828</t>
+  </si>
+  <si>
+    <t>Phạm Văn Khoa</t>
+  </si>
+  <si>
+    <t>0918004457</t>
+  </si>
+  <si>
+    <t>khoapv@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Khoa Đào tạo Quốc tế</t>
+  </si>
+  <si>
+    <t>Hồ sơ xóa tên đảng viên</t>
+  </si>
+  <si>
+    <t>1) Nghị quyết đề nghị xóa tên Đảng viên của chi bộ sinh viên 7 của đồng chí: Nguyễn Thị Thanh Tuyền - Đảng viên chính thức.</t>
+  </si>
+  <si>
+    <t>2023-11-06 10:58:44</t>
+  </si>
+  <si>
+    <t>2023-11-06 10:59:25</t>
+  </si>
+  <si>
+    <t>2023-11-08 17:53:22</t>
+  </si>
+  <si>
+    <t>2023-11-10 18:06:15</t>
+  </si>
+  <si>
+    <t>CCC0332C4E</t>
+  </si>
+  <si>
+    <t>Hồ sơ công nhận Đảng viên chính thức của Đồng chí Dương Thanh Tú - CBSV7 chi tiết hồ sơ gồm:
+1) Bản tự kiểm điểm của Đảng viên dự bị (20/7/2023)
+2) Bản nhận xét của Đảng viên được phân công giúp đỡ (09/8/2023)
+3) Tổng hợp ý kiến nhận xét (Chưa ghi ngày tháng năm)
+4) Biên bản họp nhận xét của Đoàn khoa
+5) Ý kiến nhận xét của cấp ủy nơi cư trú
+6) Đơn giải trình về việc chuyển đảng chính thức trễ
+7) Bản giải trình về việc không có giấy Đảng viên mới
+8) Nghị quyết đề nghị công nhận đảng viên chính thức (ngày 30/10/2023)
+9) Bảng điểm học tập và rèn luyện
+10) Giấy đề nghị cấp thẻ đảng viên ( Bí thư chi bộ chưa ký)</t>
+  </si>
+  <si>
+    <t>2023-11-06 10:31:48</t>
+  </si>
+  <si>
+    <t>2023-11-06 10:33:21</t>
+  </si>
+  <si>
+    <t>2023-11-10 17:59:59</t>
+  </si>
+  <si>
+    <t>2023-11-12 08:08:48</t>
+  </si>
+  <si>
+    <t>6BB92BC669</t>
+  </si>
+  <si>
+    <t>Hồ sơ công nhận Đảng viên chính thức của Đồng chí Võ Lê Vân Trường- CBSV7 chi tiết hồ sơ gồm:
+1) Giấy chứng nhận Bồi dưỡng Đảng viên mới
+2) Bản tự kiểm điểm của Đảng viên dự bị
+3) Ý kiến nhận xét của cấp ủy nơi cư trú
+4) Biên bản họp nhận xét của Đoàn khoa Quốc tế
+6) Bản giải trình về việc chuyển đảng chính thức trễ
+7) Tổng hợp ý kiến nhận xét (Chưa ghi ngày tháng năm)
+8) Nghị quyết đề nghị công nhận đảng viên chính thức (ngày 30/10/2023)
+9) Bảng điểm học tập và rèn luyện
+10) Giấy đề nghị cấp thẻ đảng viên</t>
+  </si>
+  <si>
+    <t>2023-11-06 10:27:53</t>
+  </si>
+  <si>
+    <t>2023-11-06 10:29:45</t>
+  </si>
+  <si>
+    <t>2023-11-08 17:47:54</t>
+  </si>
+  <si>
+    <t>2023-11-21 09:08:56</t>
+  </si>
+  <si>
+    <t>1B2E6E5D6F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hồ sơ công nhận Đảng viên chính thức của Đồng chí Lê Thu Hà - CBSV7 chi tiết hồ sơ gồm:
+1) Giấy chứng nhận Bồi dưỡng Đảng viên mới
+2) Bản tự kiểm điểm của Đảng viên dự bị
+3) Bản nhận xét của Đảng viên được phân công giúp đỡ
+4) Ý kiến nhận xét của chi đoàn 211311
+5) Ý kiến nhận xét của cấp ủy nơi cư trú kèm đơn giải trình không xin tại nơi tạm trú
+6) Đơn giải trình về việc chuyển đảng chính thức trễ
+7) Tổng hợp ý kiến nhận xét (Chưa ghi ngày tháng năm)
+8) Nghị quyết đề nghị công nhận đảng viên chính thức (ngày 30/10/2023)
+9) Bảng điểm học tập và rèn luyện
+10) Giấy đề nghị cấp thẻ đảng viên ( Bí thư chi bộ chưa ký)
+</t>
+  </si>
+  <si>
+    <t>2023-11-06 10:21:03</t>
+  </si>
+  <si>
+    <t>2023-11-06 10:23:24</t>
+  </si>
+  <si>
+    <t>2023-11-08 17:43:07</t>
+  </si>
+  <si>
+    <t>2023-11-21 09:07:27</t>
+  </si>
+  <si>
+    <t>70C113BBEC</t>
+  </si>
+  <si>
+    <t>Nguyễn Tử Đức</t>
+  </si>
+  <si>
+    <t>19142201@student.hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đơn xin đi nước ngoài
+Báo cáo kết quả ra nước ngoài về việc riêng
+Nơi đi: Tỉnh Tứ Xuyên, Trung Quốc
+</t>
+  </si>
+  <si>
+    <t>Đ/c Nguyễn Thị Phương Nam</t>
+  </si>
+  <si>
+    <t>2023-11-04 17:37:48</t>
+  </si>
+  <si>
+    <t>2023-11-04 17:38:33</t>
+  </si>
+  <si>
+    <t>FFB9065AE9</t>
+  </si>
+  <si>
+    <t>Huỳnh Ngọc Minh</t>
+  </si>
+  <si>
+    <t>0395943205</t>
+  </si>
+  <si>
+    <t>21124445@student.hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>1 quyển Lý lịch của người xin vào Đảng nộp với (nội dung nhờ văn phòng chỉnh sửa)</t>
+  </si>
+  <si>
+    <t>2023-11-03 15:51:31</t>
+  </si>
+  <si>
+    <t>2023-11-03 17:47:04</t>
+  </si>
+  <si>
+    <t>D872F5A1FA</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Như Quỳnh</t>
+  </si>
+  <si>
+    <t>0335632942</t>
+  </si>
+  <si>
+    <t>tran0806quynh.68@gmail.com</t>
+  </si>
+  <si>
+    <t>Chi bộ Sinh viên 2</t>
+  </si>
+  <si>
+    <t>Khoa Công nghệ Hóa học và Thực phẩm</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Trần Ngọc Như Quỳnh; MSSV: 23128163 - Sinh viên Công nghệ thực phẩm - Khoa Công nghệ Hóa học và Thực phẩm
+Chi bộ sinh hoạt: Chi bộ sinh viên 2
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ cô Nguyễn Hà Trang - 0939281155
+2) Đồng chí Phó Bí Thư chi bộ Thầy Nguyễn Văn Nhật - 0369197503</t>
+  </si>
+  <si>
+    <t>2023-11-02 18:31:59</t>
+  </si>
+  <si>
+    <t>2023-11-02 18:48:22</t>
+  </si>
+  <si>
+    <t>2023-11-03 17:47:17</t>
+  </si>
+  <si>
+    <t>DB8E1FF8B4</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Kim Hoa</t>
+  </si>
+  <si>
+    <t>0826699218</t>
+  </si>
+  <si>
+    <t>nguyenthanhkimhoa699@gmail.com</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Nguyễn Thanh Kim Hoa; MSSV: 23116058 - Sinh viên Công nghệ thực phẩm - Khoa Công nghệ Hóa học và Thực phẩm
+Chi bộ sinh hoạt: Chi bộ sinh viên 2
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ cô Nguyễn Hà Trang - 0939281155
+2) Đồng chí Phó Bí Thư chi bộ Thầy Nguyễn Văn Nhật - 0369197503</t>
+  </si>
+  <si>
+    <t>2023-11-02 16:07:18</t>
+  </si>
+  <si>
+    <t>2023-11-02 16:08:03</t>
+  </si>
+  <si>
+    <t>2023-11-02 16:10:59</t>
+  </si>
+  <si>
+    <t>2023-11-03 17:47:32</t>
+  </si>
+  <si>
+    <t>2CE24D1370</t>
+  </si>
+  <si>
+    <t>Lê Hồng Linh</t>
+  </si>
+  <si>
+    <t>0977787572</t>
+  </si>
+  <si>
+    <t>lehonglinh160219@gmail.com</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Lê Hồng Linh; MSSV: 23131067 - Sinh viên Ngôn ngữ Anh - Khoa Ngoại ngữ
+Chi bộ sinh hoạt: Chi bộ sinh viên 7
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ Thầy Phạm Văn Khoa - SĐT &amp; Zalo: 0918004457
+2) Đồng chí Phó Bí Thư chi bộ Chị Nguyễn Thị Minh Thư SĐT &amp; Zalo - 0837910802</t>
+  </si>
+  <si>
+    <t>2023-11-02 15:33:29</t>
+  </si>
+  <si>
+    <t>2023-11-02 15:34:39</t>
+  </si>
+  <si>
+    <t>2023-11-06 09:13:20</t>
+  </si>
+  <si>
+    <t>17A256B215</t>
+  </si>
+  <si>
+    <t>Đặng Thị Ái Ngọc</t>
+  </si>
+  <si>
+    <t>0347070812</t>
+  </si>
+  <si>
+    <t>aingocdangthi@gmail.com</t>
+  </si>
+  <si>
+    <t>Khoa In và Truyền thông</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Đặng Thị Ái Ngọc; MSSV: 23158021 - Sinh viên Công nghệ Kỹ thuật in - Khoa In và Truyền thông
+Chi bộ sinh hoạt: Chi bộ sinh viên 4
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ cô Nguyễn Hữu Trung - SĐT &amp; Zalo: 0908617108 
+2) Đồng chí Phó Bí Thư chi bộ Anh Nguyễn Như Tú - 0339217372</t>
+  </si>
+  <si>
+    <t>2023-11-01 17:43:57</t>
+  </si>
+  <si>
+    <t>2023-11-01 17:44:17</t>
+  </si>
+  <si>
+    <t>2023-11-03 13:58:56</t>
+  </si>
+  <si>
+    <t>39C36C23BB</t>
+  </si>
+  <si>
+    <t>Đặng Minh Đạt</t>
+  </si>
+  <si>
+    <t>0859781909</t>
+  </si>
+  <si>
+    <t>minhdat8305@gmail.com</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Đặng Minh Đạt; MSSV: 23144057 - Sinh viên Công nghệ chế tạo máy - Khoa Cơ khí Chế tạo máy
+Chi bộ sinh hoạt: Chi bộ sinh viên 1
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ cô Nguyễn Thanh Tân - SĐT &amp; Zalo: 0938004496
+2) Đồng chí Phó Bí Thư chi bộ Anh Nguyễn Trung Thành SĐT &amp; Zalo - 0383144705</t>
+  </si>
+  <si>
+    <t>2023-11-01 17:21:24</t>
+  </si>
+  <si>
+    <t>2023-11-01 17:22:34</t>
+  </si>
+  <si>
+    <t>2023-11-03 13:57:31</t>
+  </si>
+  <si>
+    <t>3F3C2CD29B</t>
+  </si>
+  <si>
+    <t>Lê Công Tuấn Anh</t>
+  </si>
+  <si>
+    <t>0979580401</t>
+  </si>
+  <si>
+    <t>chibosinhvien3spkt@gmail.com</t>
+  </si>
+  <si>
+    <t>- Cuốn lý lịch xin vào Đảng đ/c Bùi Ngọc Mai (Xin ý kiến và thẫm tra lý lịch)
+- Đơn xin vào Đảng đ/c Bùi Ngọc Mai.
+- Cuốn lý lịch người xin vào Đảng đ/c Trương Sùng Thái Hàng ( Xin sửa lý lịch)</t>
+  </si>
+  <si>
+    <t>Liên hệ qua Gmail</t>
+  </si>
+  <si>
+    <t>Hồ sơ chờ Văn phòng Đảng ủy kiểm duyệt</t>
+  </si>
+  <si>
+    <t>2023-11-01 14:37:31</t>
+  </si>
+  <si>
+    <t>B74E924DB2</t>
+  </si>
+  <si>
+    <t>Phạm Thanh Tuân</t>
+  </si>
+  <si>
+    <t>tuanpt@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Không</t>
+  </si>
+  <si>
+    <t>1) Lý lịch của người xin vào Đảng: Phạm Thanh Tuân; Quê quán: xã Thượng Lan, huyện Việt Yên, tỉnh Bắc Giang
+2) Đơn xin vào Đảng</t>
+  </si>
+  <si>
+    <t>2023-10-31 10:35:30</t>
+  </si>
+  <si>
+    <t>2023-10-31 10:35:45</t>
+  </si>
+  <si>
+    <t>E6D136A970</t>
+  </si>
+  <si>
+    <t>Nguyễn Như Khương</t>
+  </si>
+  <si>
+    <t>0973195051</t>
+  </si>
+  <si>
+    <t>khuongnn@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 5</t>
+  </si>
+  <si>
+    <t>Viện Sư Phạm Kỹ Thuật</t>
+  </si>
+  <si>
+    <t>- Cuốn lý lịch của người xin vào Đảng của quần chúng Nguyễn Thị Kim Oanh
+VPĐU: đã tiếp nhận và tiến hành đi xác minh.</t>
+  </si>
+  <si>
+    <t>2023-10-30 15:42:30</t>
+  </si>
+  <si>
+    <t>2023-10-30 15:43:03</t>
+  </si>
+  <si>
+    <t>DA9CEA961B</t>
+  </si>
+  <si>
+    <t>Bổ sung giấy nhận xét nơi cư trú cho Đảng viên Nguyễn Thành Trung - 01/6/2003
+VPĐU: Hồ sơ đã được cập nhật và bỏ vào túi hồ sơ của đảng viên</t>
+  </si>
+  <si>
+    <t>2023-10-30 14:31:05</t>
+  </si>
+  <si>
+    <t>2023-10-30 14:34:17</t>
+  </si>
+  <si>
+    <t>504BC518D5</t>
+  </si>
+  <si>
+    <t>Vương Trọng Nghĩa</t>
+  </si>
+  <si>
+    <t>0869954890</t>
+  </si>
+  <si>
+    <t>trongnghiaute@gmail.com</t>
+  </si>
+  <si>
+    <t>TEST KIỂM TRA HỒ SƠ</t>
+  </si>
+  <si>
+    <t>2023-10-30 13:54:56</t>
+  </si>
+  <si>
+    <t>2023-11-25 12:09:46</t>
+  </si>
+  <si>
+    <t>2023-11-25 13:12:17</t>
+  </si>
+  <si>
+    <t>0DFE17545C</t>
+  </si>
+  <si>
+    <t>Phạm Huy Tuân</t>
+  </si>
+  <si>
+    <t>0919636515</t>
+  </si>
+  <si>
+    <t>phtuan@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 15</t>
+  </si>
+  <si>
+    <t>Phòng Đảm bảo Chất lượng</t>
+  </si>
+  <si>
+    <t>Báo cáo đi nước ngoài Đồng chí Phạm Hữu Tuân
+Người nộp: Đ/C Nguyễn Khoa Mai Khoa</t>
+  </si>
+  <si>
+    <t>2023-10-26 10:05:50</t>
+  </si>
+  <si>
+    <t>2023-10-26 10:06:16</t>
+  </si>
+  <si>
+    <t>F5EB578B2B</t>
+  </si>
+  <si>
+    <t>Đào Thị Kim Yến</t>
+  </si>
+  <si>
+    <t>0905113320</t>
+  </si>
+  <si>
+    <t>yendtk@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Phiếu xác nhận về việc Đảng viên tham gia sinh hoạt và đóng đảng phí tại chi bộ của các đồng chí
+1) Hồ Bảo Ngọc
+2) Trương Hồng Nhung
+3) Nguyễn Ngọc Trâm
+4) Nguyễn Thị Thúy Ngân</t>
+  </si>
+  <si>
+    <t>2023-10-25 14:21:18</t>
+  </si>
+  <si>
+    <t>2023-10-26 10:06:08</t>
+  </si>
+  <si>
+    <t>DD41FD446F</t>
+  </si>
+  <si>
+    <t>Ha Trang Nguyen</t>
+  </si>
+  <si>
+    <t>0939281155</t>
+  </si>
+  <si>
+    <t>trangnh@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Giấy chứng nhận lớp Đảng viên mới Nguyễn Ngô Mỹ Anh</t>
+  </si>
+  <si>
+    <t>Liên hệ qua Zalo</t>
+  </si>
+  <si>
+    <t>2023-10-25 10:00:12</t>
+  </si>
+  <si>
+    <t>2023-10-25 14:15:59</t>
+  </si>
+  <si>
+    <t>46A86BB0A2</t>
+  </si>
+  <si>
+    <t>Huỳnh Nguyễn Anh Tuấn</t>
+  </si>
+  <si>
+    <t>tuanhna@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 6</t>
+  </si>
+  <si>
+    <t>Đơn đề nghị ra nước ngoài về việc riêng
+Đồng chí Huỳnh Nguyễn Anh Tuấn - Đảng viên chi bộ 06
+Đi công tác từ: 25/10 - 29/10/2023
+Nơi đến: Hàn Quốc
+Mục đích đi: Tham quan Đại học SungKyungKwan</t>
+  </si>
+  <si>
+    <t>2023-10-24 14:59:51</t>
+  </si>
+  <si>
+    <t>2023-10-25 14:16:17</t>
+  </si>
+  <si>
+    <t>2023-11-13 10:31:05</t>
+  </si>
+  <si>
+    <t>39A21B1B17</t>
+  </si>
+  <si>
+    <t>Bùi Thị Mộng Tiền</t>
+  </si>
+  <si>
+    <t>0335745345</t>
+  </si>
+  <si>
+    <t>tienbtm@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 13</t>
+  </si>
+  <si>
+    <t>Phòng Quan hệ Doanh nghiệp</t>
+  </si>
+  <si>
+    <t>- Báo cáo đi ra nước ngoài của đồng chí Nguyễn Thị Lại Giang
+- Thời gian đi từ: 19/12/2023 - 09/01/2024
+- Nơi đến: Hoa Kỳ
+- Thời gian di chuyển đi là : 22 ngày
+- Mục đích: Đi thăm con gái đang học tại Boston Hoa Kỳ</t>
+  </si>
+  <si>
+    <t>2023-10-23 16:21:03</t>
+  </si>
+  <si>
+    <t>2023-10-23 16:23:19</t>
+  </si>
+  <si>
+    <t>2023-11-06 17:38:36</t>
+  </si>
+  <si>
+    <t>D9DCBCB7B3</t>
+  </si>
+  <si>
+    <t>Nguyễn Phan Như Ngọc</t>
+  </si>
+  <si>
+    <t>0933093055</t>
+  </si>
+  <si>
+    <t>ngocnpn@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 20</t>
+  </si>
+  <si>
+    <t>Báo cáo kết quả ra nước ngoài về việc riêng:
+Thời gian đi: 01/10/2023 đến 15/10/2023
+Nơi đến: Thụy sĩ
+Mục đích: Chuyến đi du lịch</t>
+  </si>
+  <si>
+    <t>2023-10-22 15:45:37</t>
+  </si>
+  <si>
+    <t>2023-10-22 15:45:51</t>
+  </si>
+  <si>
+    <t>2023-10-23 09:16:58</t>
+  </si>
+  <si>
+    <t>EFDB3C67CA</t>
+  </si>
+  <si>
+    <t>Trịnh Khánh Sơn</t>
+  </si>
+  <si>
+    <t>0935133734</t>
+  </si>
+  <si>
+    <t>sontk@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Đăng ký lớp nhận thức Đảng - lớp Đảng viên mới</t>
+  </si>
+  <si>
+    <t>- Danh sách đăng ký tham gia lớp nhận thức Đảng (dành cho Cảm tình Đảng) của chi bộ 6
+- Danh sách chi tiết bao gồm:
+1) Lê Minh Tâm
+2) Hoàng Văn Chuyển
+3) Nguyễn Thị Tịnh Ấu
+4) Trần Thị Kim Anh
+5) Nguyễn Duy Đạt</t>
+  </si>
+  <si>
+    <t>2023-10-20 16:34:27</t>
+  </si>
+  <si>
+    <t>2023-10-20 16:35:33</t>
+  </si>
+  <si>
+    <t>2023-10-27 16:53:58</t>
+  </si>
+  <si>
+    <t>6470E87ED2</t>
+  </si>
+  <si>
+    <t>Phùng Thế Anh</t>
+  </si>
+  <si>
+    <t>0919222455</t>
+  </si>
+  <si>
+    <t>anhpt@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 9</t>
+  </si>
+  <si>
+    <t>Khoa Chính trị và Luật</t>
+  </si>
+  <si>
+    <t>- Danh sách đăng ký tham gia lớp nhận thức Đảng (dành cho Cảm tình Đảng) chi bộ 9
+- Danh sách chi tiết bao gồm:
+1) Đoàn Trọng Chỉnh
+2) Phạm Công Thiên Đỉnh
+3) Hàng Long Nhựt</t>
+  </si>
+  <si>
+    <t>2023-10-20 16:32:34</t>
+  </si>
+  <si>
+    <t>2023-10-20 16:34:54</t>
+  </si>
+  <si>
+    <t>2023-10-27 16:54:25</t>
+  </si>
+  <si>
+    <t>97B55F16BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0908617108 </t>
+  </si>
+  <si>
+    <t>- Danh sách đăng ký tham gia lớp nhận thức Đảng chi bộ sinh viên 4:
+1) Lê Thị Hồng Linh
+2) Nguyễn Thị Bích Liên
+3) Nguyễn Thị Cẩm Duyên
+4) Nguyễn Thị Thu Thảo
+5) Phạm Thị Thảo Phương
+6) Võ Nguyễn Minh Tân
+- Danh sách đăng ký tham gia lớp Đảng viên mới chi bộ sinh viên 4
+1) Phạm Thị Kim Ngân
+2) Lương Thị Ngọc Trâm
+3) Nguyễn Duy Quang</t>
+  </si>
+  <si>
+    <t>2023-10-20 11:20:43</t>
+  </si>
+  <si>
+    <t>2023-10-20 16:35:21</t>
+  </si>
+  <si>
+    <t>2023-10-27 16:54:42</t>
+  </si>
+  <si>
+    <t>09B370788D</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mỹ Linh</t>
+  </si>
+  <si>
+    <t>0387654370</t>
+  </si>
+  <si>
+    <t>21124371@student.hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Bản giải trình của chị Võ Thị Thuỳ Trang</t>
+  </si>
+  <si>
+    <t>2023-10-19 14:28:42</t>
+  </si>
+  <si>
+    <t>AFC1D41BE0</t>
+  </si>
+  <si>
+    <t>Danh sách đăng ký tham gia lớp nhận thức về Đảng (dành cho Cảm tình Đảng)
+- Diệp Phương Chi
+- Nguyễn Huỳnh Ngọc Linh
+- Dương Thị Kim Oanh
+- Đỗ Quang Trực</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:07:19</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:08:36</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:08:48</t>
+  </si>
+  <si>
+    <t>2023-10-27 16:56:53</t>
+  </si>
+  <si>
+    <t>56E7AA66B0</t>
+  </si>
+  <si>
+    <t>Sổ họp chi bộ</t>
+  </si>
+  <si>
+    <t>- Sổ họp chi bộ
+- Kế hoạch kiểm tra giám sát</t>
+  </si>
+  <si>
+    <t>Đã nhận lại Hồ sơ từ Văn phòng Đảng ủy</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:05:05</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:08:19</t>
+  </si>
+  <si>
+    <t>2023-10-27 10:43:03</t>
+  </si>
+  <si>
+    <t>45CAF667EA</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Lan Hương</t>
+  </si>
+  <si>
+    <t>0966896239</t>
+  </si>
+  <si>
+    <t>huonghtl@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 10</t>
+  </si>
+  <si>
+    <t>Phòng Kế hoạch Tài chính</t>
+  </si>
+  <si>
+    <t>Sổ họp chi bộ năm 2023</t>
+  </si>
+  <si>
+    <t>2023-10-19 09:43:57</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:08:08</t>
+  </si>
+  <si>
+    <t>2023-10-31 14:30:51</t>
+  </si>
+  <si>
+    <t>688552ECBE</t>
+  </si>
+  <si>
+    <t>Phạm Thị Hoa</t>
+  </si>
+  <si>
+    <t>0973742244</t>
+  </si>
+  <si>
+    <t>hoapt@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 3</t>
+  </si>
+  <si>
+    <t>Phòng Tổ chức Hành chính</t>
+  </si>
+  <si>
+    <t>- Sổ họp chi bộ năm 2023
+- Kế hoạch kiểm tra giám sát năm 2023</t>
+  </si>
+  <si>
+    <t>2023-10-19 09:29:55</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:07:53</t>
+  </si>
+  <si>
+    <t>2023-10-25 11:22:08</t>
+  </si>
+  <si>
+    <t>D5CFCBE0C3</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Giang</t>
+  </si>
+  <si>
+    <t>0913605184</t>
+  </si>
+  <si>
+    <t>giangnt@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 29</t>
+  </si>
+  <si>
+    <t>Ban quản lý KTX</t>
+  </si>
+  <si>
+    <t>- Sổ họp chi bộ
+- Kế hoạch kiểm tra giám sát năm 2023</t>
+  </si>
+  <si>
+    <t>2023-10-19 08:54:53</t>
+  </si>
+  <si>
+    <t>2023-10-19 09:01:01</t>
+  </si>
+  <si>
+    <t>5A66579CB7</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mai Ly</t>
+  </si>
+  <si>
+    <t>0922666566</t>
+  </si>
+  <si>
+    <t>maily@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 27</t>
+  </si>
+  <si>
+    <t>Phòng Thiết bị - Vật tư</t>
+  </si>
+  <si>
+    <t>Sổ họp chi bộ
+Kế hoạch kiểm tra giám sát
+tài liệu sinh hoạt chi bộ</t>
+  </si>
+  <si>
+    <t>2023-10-19 08:41:59</t>
+  </si>
+  <si>
+    <t>2023-10-19 08:42:12</t>
+  </si>
+  <si>
+    <t>EBD0039C1F</t>
+  </si>
+  <si>
+    <t>Sổ họp chi bộ
+Kế hoạch kiểm tra giám sát</t>
+  </si>
+  <si>
+    <t>2023-10-19 08:24:25</t>
+  </si>
+  <si>
+    <t>2023-10-19 08:24:41</t>
+  </si>
+  <si>
+    <t>2023-11-17 11:06:04</t>
+  </si>
+  <si>
+    <t>A5022A24D2</t>
+  </si>
+  <si>
+    <t>Sổ họp chi bộ
+Kế  hoạch kiểm tra giám sát</t>
+  </si>
+  <si>
+    <t>2023-10-19 08:22:43</t>
+  </si>
+  <si>
+    <t>2023-10-19 08:23:05</t>
+  </si>
+  <si>
+    <t>2023-11-22 14:24:48</t>
+  </si>
+  <si>
+    <t>1244267BBB</t>
+  </si>
+  <si>
+    <t>Lê Khai Minh Trí</t>
+  </si>
+  <si>
+    <t>01265080182</t>
+  </si>
+  <si>
+    <t>minhtrilk@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 28</t>
+  </si>
+  <si>
+    <t>sổ họp chi bộ
+Kế hoạch kiểm tra giám sát</t>
+  </si>
+  <si>
+    <t>2023-10-19 08:18:32</t>
+  </si>
+  <si>
+    <t>2023-10-19 08:19:27</t>
+  </si>
+  <si>
+    <t>2023-10-23 14:41:01</t>
+  </si>
+  <si>
+    <t>B9E1638565</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thúy</t>
+  </si>
+  <si>
+    <t>0909325648</t>
+  </si>
+  <si>
+    <t>nguyenthuy@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sổ họp chi bộ 
+Kế hoạch kiểm tra giám sát
+</t>
+  </si>
+  <si>
+    <t>2023-10-19 07:58:07</t>
+  </si>
+  <si>
+    <t>2023-10-19 07:58:34</t>
+  </si>
+  <si>
+    <t>2023-10-23 10:48:07</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Trạng</t>
+  </si>
+  <si>
+    <t>0935705017</t>
+  </si>
+  <si>
+    <t>trangnv@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 12</t>
+  </si>
+  <si>
+    <t>- Sổ họp năm 2023
+- Kế hoạch kiểm tra giám sát</t>
+  </si>
+  <si>
+    <t>2023-10-19 07:53:18</t>
+  </si>
+  <si>
+    <t>2023-10-19 07:54:22</t>
+  </si>
+  <si>
+    <t>C163822D3D</t>
+  </si>
+  <si>
+    <t>1 Sổ họp Chi bộ SV3 năm 2023.
+1 Kế Hoạch Kiểm tra, giám sát của Chị bộ  đối với Đảng viên năm 2023.</t>
+  </si>
+  <si>
+    <t>2023-10-19 07:52:40</t>
+  </si>
+  <si>
+    <t>2023-10-19 07:54:09</t>
+  </si>
+  <si>
+    <t>2023-10-27 13:20:32</t>
+  </si>
+  <si>
+    <t>EE69A86418</t>
+  </si>
+  <si>
+    <t>2023-10-19 07:52:13</t>
+  </si>
+  <si>
+    <t>2023-10-19 07:54:02</t>
+  </si>
+  <si>
+    <t>2023-10-31 16:38:31</t>
+  </si>
+  <si>
+    <t>3A26BB7A60</t>
+  </si>
+  <si>
+    <t>Trần Văn Thiên</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>thientv@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 11</t>
+  </si>
+  <si>
+    <t>- Kế hoạch kiểm tra năm 2023</t>
+  </si>
+  <si>
+    <t>2023-10-19 07:49:43</t>
+  </si>
+  <si>
+    <t>2023-10-19 07:53:54</t>
+  </si>
+  <si>
+    <t>2023-11-01 18:16:16</t>
+  </si>
+  <si>
+    <t>0400C2EE24</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Việt Hà</t>
+  </si>
+  <si>
+    <t>hantv@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 18</t>
+  </si>
+  <si>
+    <t>- Sổ họp chi bộ
+- Kế hoạch kiểm tra giám sát Đảng viên năm 2023</t>
+  </si>
+  <si>
+    <t>2023-10-19 07:47:24</t>
+  </si>
+  <si>
+    <t>2023-10-19 07:53:42</t>
+  </si>
+  <si>
+    <t>2023-10-20 10:13:32</t>
+  </si>
+  <si>
+    <t>0E9AFDF049</t>
+  </si>
+  <si>
+    <t>Nguyễn Đặng Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>0906828585</t>
+  </si>
+  <si>
+    <t>myduyen@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>- Sổ họp chi bộ năm 2023
+- Kế hoạch chương trình kiểm tra giám sát năm 2023</t>
+  </si>
+  <si>
+    <t>2023-10-19 07:45:09</t>
+  </si>
+  <si>
+    <t>2023-10-19 07:53:34</t>
+  </si>
+  <si>
+    <t>2023-11-21 09:16:29</t>
+  </si>
+  <si>
+    <t>17A40F57D0</t>
+  </si>
+  <si>
+    <t>Lê Việt Tiên</t>
+  </si>
+  <si>
+    <t>0985188457</t>
+  </si>
+  <si>
+    <t>viettien@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 7</t>
+  </si>
+  <si>
+    <t>Phòng Truyền thông</t>
+  </si>
+  <si>
+    <t>- Sổ họp chi bộ năm 2023
+- Chương trình công tác năm 2023
+- Kế hoạch kiểm tra, giám sát Đảng viên
+- Quy chế làm việc của chi ủy</t>
+  </si>
+  <si>
+    <t>2023-10-19 07:41:46</t>
+  </si>
+  <si>
+    <t>2023-10-19 07:42:07</t>
+  </si>
+  <si>
+    <t>3A237FB3C3</t>
+  </si>
+  <si>
+    <t>Mai Tuấn Khôi</t>
+  </si>
+  <si>
+    <t>0909288155</t>
+  </si>
+  <si>
+    <t>khoimt@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 14</t>
+  </si>
+  <si>
+    <t>Trung tâm Sáng tạo và Khởi nghiệp</t>
+  </si>
+  <si>
+    <t>- Số họp chi bộ năm 2023</t>
+  </si>
+  <si>
+    <t>2023-10-18 18:54:28</t>
+  </si>
+  <si>
+    <t>2023-10-18 18:55:57</t>
+  </si>
+  <si>
+    <t>2023-10-18 19:09:35</t>
+  </si>
+  <si>
+    <t>2023-10-27 16:52:06</t>
+  </si>
+  <si>
+    <t>F49AF64770</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim Cúc</t>
+  </si>
+  <si>
+    <t>0908617234</t>
+  </si>
+  <si>
+    <t>cucntk@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 1</t>
+  </si>
+  <si>
+    <t>Phòng Đào tạo Không chính quy</t>
+  </si>
+  <si>
+    <t>- 01 sổ họp chi bộ năm 2023
+- 01 kế hoạch kiểm tra giám sát của chi bộ 1</t>
+  </si>
+  <si>
+    <t>2023-10-18 18:42:31</t>
+  </si>
+  <si>
+    <t>2023-10-18 18:42:52</t>
+  </si>
+  <si>
+    <t>2023-10-24 14:25:20</t>
+  </si>
+  <si>
+    <t>31F9007B2F</t>
+  </si>
+  <si>
+    <t>Lê Minh Tài</t>
+  </si>
+  <si>
+    <t>0948996955</t>
+  </si>
+  <si>
+    <t>tailm@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>- 01 sổ họp chi bộ năm 2023
+- 01 kế hoạch kiểm tra giám sát của chi bộ 4</t>
+  </si>
+  <si>
+    <t>2023-10-18 18:18:43</t>
+  </si>
+  <si>
+    <t>2023-10-18 18:19:00</t>
+  </si>
+  <si>
+    <t>2243476A2C</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hiển</t>
+  </si>
+  <si>
+    <t>0908248238</t>
+  </si>
+  <si>
+    <t>hienpv@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danh sách đăng ký tham gia lớp nhận thức Đảng dành cho Cảm tình Đảng
+Chi tiết danh sách bao gồm 2 đồng chí: 
++ Đỗ Huy Bình - 25/02/1983 - xã Bình Sơn, huyện Long Thành, tỉnh Đồng Nai - UV BCH Công đoàn bộ phận KHUD
++ Nguyễn Chí Thanh - 02/7/1985 - phường Hòa Hiệp Nam, thị Đông Hòa, tỉnh Phú Yên
+ </t>
+  </si>
+  <si>
+    <t>2023-10-18 18:05:13</t>
+  </si>
+  <si>
+    <t>2023-10-18 18:08:49</t>
+  </si>
+  <si>
+    <t>2023-10-27 16:57:19</t>
+  </si>
+  <si>
+    <t>1802AFC323</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Tâm</t>
+  </si>
+  <si>
+    <t>0902873941</t>
+  </si>
+  <si>
+    <t>tamnm@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>- 01 sổ họp chi bộ
+- 01 kế hoạch giám sát của chi bộ năm 2023</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>2023-10-18 18:01:23</t>
+  </si>
+  <si>
+    <t>2023-10-18 18:03:45</t>
+  </si>
+  <si>
+    <t>897972C5D0</t>
+  </si>
+  <si>
+    <t>Trần Thị Ngọc Trâm</t>
+  </si>
+  <si>
+    <t>0334872311</t>
+  </si>
+  <si>
+    <t>20116344@student.hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Sổ họp chi bộ màu xanh, bên ngoài có ghi chi bộ 19, sinh viên 2.</t>
+  </si>
+  <si>
+    <t>2023-10-18 17:59:53</t>
+  </si>
+  <si>
+    <t>2023-10-18 18:04:00</t>
+  </si>
+  <si>
+    <t>CC128E49BA</t>
+  </si>
+  <si>
+    <t>- 01 sổ họp chi bộ
+- 01 kế hoạch kiểm tra giám sát của chi bộ 16</t>
+  </si>
+  <si>
+    <t>2023-10-18 17:59:15</t>
+  </si>
+  <si>
+    <t>2023-10-18 18:04:10</t>
+  </si>
+  <si>
+    <t>B1B6324EC4</t>
+  </si>
+  <si>
+    <t>Phạm Bạch Dương</t>
+  </si>
+  <si>
+    <t>0913755155</t>
+  </si>
+  <si>
+    <t>bachduong@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 23</t>
+  </si>
+  <si>
+    <t>Phòng Quan hệ Quốc tế</t>
+  </si>
+  <si>
+    <t>Kế hoạch chương trình kiểm tra, giám sát chi bộ 23 (bản gốc)</t>
+  </si>
+  <si>
+    <t>2023-10-18 17:57:33</t>
+  </si>
+  <si>
+    <t>2023-10-18 18:04:22</t>
+  </si>
+  <si>
+    <t>F9A9EACE96</t>
+  </si>
+  <si>
+    <t>- Sổ họp chi bộ năm 2023 màu đỏ của Đảng ủy
+- Kế hoạch kiểm tra giám sát của Chi bộ đối với Đảng viên năm 2023</t>
+  </si>
+  <si>
+    <t>2023-10-18 17:48:46</t>
+  </si>
+  <si>
+    <t>2023-10-18 17:49:19</t>
+  </si>
+  <si>
+    <t>C24EB738A3</t>
+  </si>
+  <si>
+    <t>Hồ Thị Hồng Xuyên</t>
+  </si>
+  <si>
+    <t>0906884226</t>
+  </si>
+  <si>
+    <t>xuyenhth@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>2023-10-18 17:47:17</t>
+  </si>
+  <si>
+    <t>2023-10-18 17:49:09</t>
+  </si>
+  <si>
+    <t>0AAB43FAF5</t>
+  </si>
+  <si>
+    <t>Trần Thị Thanh Thủy</t>
+  </si>
+  <si>
+    <t>0908097784</t>
+  </si>
+  <si>
+    <t>thanhthuy@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Chi bộ 26</t>
+  </si>
+  <si>
+    <t>Thư viện</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Sổ họp chi bộ năm 2023 màu đỏ của Đảng ủy
+- Kế hoạch kiểm tra giám sát của Chi bộ đối với Đảng viên năm 2023
+</t>
+  </si>
+  <si>
+    <t>2023-10-18 17:34:38</t>
+  </si>
+  <si>
+    <t>2023-10-18 17:35:13</t>
+  </si>
+  <si>
+    <t>C076F64B6E</t>
+  </si>
+  <si>
+    <t>Nguyễn Thới</t>
+  </si>
+  <si>
+    <t>0982612805</t>
+  </si>
+  <si>
+    <t>thoinguyen@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>01 sổ họp màu màu đen.</t>
+  </si>
+  <si>
+    <t>2023-10-18 17:31:13</t>
+  </si>
+  <si>
+    <t>2023-10-18 17:35:03</t>
+  </si>
+  <si>
+    <t>2023-10-27 16:50:12</t>
+  </si>
+  <si>
+    <t>158CDB90A9</t>
+  </si>
+  <si>
+    <t>Phan Thị Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>0862645708</t>
+  </si>
+  <si>
+    <t>ptmyduyen2106@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Lý lịch của người xin vào Đảng
+- Giấy chứng nhận lớp bồi dưỡng lý luận chính trị dành cho Đối tượng Kết nạp Đảng 
+- giấy giới thiệu của chi bộ
+- giấy giới thiệu người vào Đảng
+ - Phiếu nhận xét
+- phiếu tổng hợp ý kiến
+- học bạ
+- nghị quyết đề nghị kết nạp Đảng của chi bộ 
+</t>
+  </si>
+  <si>
+    <t>2023-10-18 16:14:54</t>
+  </si>
+  <si>
+    <t>2023-10-18 17:32:10</t>
+  </si>
+  <si>
+    <t>2023-10-18 17:36:46</t>
+  </si>
+  <si>
+    <t>3AAE771E81</t>
+  </si>
+  <si>
+    <t>Nguyễn Khoa Mai Khoa</t>
+  </si>
+  <si>
+    <t>0979142481</t>
+  </si>
+  <si>
+    <t>khoanpm@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>- Sổ họp chi bộ năm 2023</t>
+  </si>
+  <si>
+    <t>2023-10-18 16:00:15</t>
+  </si>
+  <si>
+    <t>2023-10-18 16:00:36</t>
+  </si>
+  <si>
+    <t>2023-11-02 15:59:28</t>
+  </si>
+  <si>
+    <t>2023-11-02 16:01:01</t>
+  </si>
+  <si>
+    <t>5100C9FB1F</t>
+  </si>
+  <si>
+    <t>Trần Phong Vinh</t>
+  </si>
+  <si>
+    <t>vinhtp@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Trung tâm Giáo dục Thể chất</t>
+  </si>
+  <si>
+    <t>2023-10-18 15:41:10</t>
+  </si>
+  <si>
+    <t>2023-10-18 15:43:14</t>
+  </si>
+  <si>
+    <t>2023-10-27 09:42:32</t>
+  </si>
+  <si>
+    <t>2023-10-27 16:50:49</t>
+  </si>
+  <si>
+    <t>76B24E50CA</t>
+  </si>
+  <si>
+    <t>Lê Thị Minh Châu</t>
+  </si>
+  <si>
+    <t>0902200557</t>
+  </si>
+  <si>
+    <t>chaultm@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Nộp lý lịch của người xin vào đảng.</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:14:01</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:15:00</t>
+  </si>
+  <si>
+    <t>D46FE868BB</t>
+  </si>
+  <si>
+    <t>0909898516</t>
+  </si>
+  <si>
+    <t>Nộp lý lịch của người xin vào đảng</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:12:28</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:14:42</t>
+  </si>
+  <si>
+    <t>C6AD4E0555</t>
+  </si>
+  <si>
+    <t>Trần Thanh Tình</t>
+  </si>
+  <si>
+    <t>0766508135</t>
+  </si>
+  <si>
+    <t>tinhtt@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>- Lý lịch của người xin vào đảng</t>
+  </si>
+  <si>
+    <t>2023-10-18 10:23:03</t>
+  </si>
+  <si>
+    <t>2023-10-18 10:23:37</t>
+  </si>
+  <si>
+    <t>EF501F8E32</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thúy Ngân</t>
+  </si>
+  <si>
+    <t>21124448@student.hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Công văn huyện ủy Bình Sơn
+- Hồ sơ Đảng viên
+- Đã cho đồng chí viết bản tường trình quá trình nộp hồ sơ Đảng viên
+</t>
+  </si>
+  <si>
+    <t>2023-10-17 21:37:42</t>
+  </si>
+  <si>
+    <t>2023-10-17 21:38:17</t>
+  </si>
+  <si>
+    <t>2023-10-18 13:41:08</t>
+  </si>
+  <si>
+    <t>231797BE1E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danh sách đăng ký tham gia lớp nhận thức Đảng dành cho Cảm tình Đảng
+Danh sách bao gồm 1 đồng chí: Vũ Thị Thanh Thảo
+</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:16:38</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:18:01</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:20:05</t>
+  </si>
+  <si>
+    <t>2023-10-27 16:57:42</t>
+  </si>
+  <si>
+    <t>Trương Ngọc Anh</t>
+  </si>
+  <si>
+    <t>0903852302</t>
+  </si>
+  <si>
+    <t>anhtn@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Đơn đề nghị ra nước ngoài về việc riêng
+- Thời gian: Từ ngày 15/10 đến 19/10
+- Nơi đến: Trung Quốc
+Mục đích đi: Tham quan, học hỏi và cập nhật những thông tin mới nhất về công nghệ tại Hội chợ Thương mại Quốc tế tại Quảng Châu, Trung Quốc
+</t>
+  </si>
+  <si>
+    <t>2023-10-16 18:04:48</t>
+  </si>
+  <si>
+    <t>2023-10-16 18:05:07</t>
+  </si>
+  <si>
+    <t>2023-10-17 11:32:15</t>
+  </si>
+  <si>
+    <t>B033606B7C</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Quang</t>
+  </si>
+  <si>
+    <t>0378869290</t>
+  </si>
+  <si>
+    <t>duyquang22042005@gmail.com</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Nguyễn Duy Quang; MSSV: 23110290 - Sinh viên Công nghệ thông tin - Khoa Công nghệ Thông tin
+Chi bộ sinh hoạt: Chi bộ sinh viên 4
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ Thầy Nguyễn Hữu Trung - SĐT &amp; Zalo: 0908617108 
+2) Đồng chí Phó Bí Thư chi bộ Anh Nguyễn Như Tú - 0339217372</t>
+  </si>
+  <si>
+    <t>2023-10-16 16:57:35</t>
+  </si>
+  <si>
+    <t>2023-10-16 16:59:13</t>
+  </si>
+  <si>
+    <t>2023-10-23 14:14:18</t>
+  </si>
+  <si>
+    <t>9F5B18504F</t>
+  </si>
+  <si>
+    <t>Mạc Anh Hào</t>
+  </si>
+  <si>
+    <t>0833400533</t>
+  </si>
+  <si>
+    <t>macanhhaocv0206@gmail.com</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Mạc Anh Hào
+MSSV: 23145291 - Sinh viên Công nghệ Kỹ thuật ô tô - Khoa Cơ khí Động lực
+Chi bộ sinh hoạt: Chi bộ sinh viên 5
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ Thầy Nguyễn Thiện Dinh - 0353040909 - Email: dinhnt@hcmute.edu.vn
+2) Đồng chí Phó Bí Thư chi bộ Thầy Lê Phương Bình - 0908520732 - Email: binhlp@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>2023-10-16 16:39:19</t>
+  </si>
+  <si>
+    <t>2023-10-16 16:46:43</t>
+  </si>
+  <si>
+    <t>2023-10-23 14:14:48</t>
+  </si>
+  <si>
+    <t>9891E03A06</t>
+  </si>
+  <si>
+    <t>Nguyễn Phan Anh</t>
+  </si>
+  <si>
+    <t>0859322143</t>
+  </si>
+  <si>
+    <t>anhnp@pvu.edu.vn</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Nguyễn Phan Anh; Giảng viên Khoa Cơ khí Chế tạo máy
+Chi bộ sinh hoạt: Chi bộ 4
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ Thầy Trương Nguyễn Luân Vũ - SĐT &amp; Zalo: 0909011136
+2) Đồng chí Phó Bí Thư chi bộ Cô Phạm Thị Hồng Nga SĐT &amp; Zalo - 0948691160</t>
+  </si>
+  <si>
+    <t>2023-10-16 16:09:34</t>
+  </si>
+  <si>
+    <t>2023-10-16 16:31:23</t>
+  </si>
+  <si>
+    <t>2023-11-06 09:12:38</t>
+  </si>
+  <si>
+    <t>7377C20216</t>
+  </si>
+  <si>
+    <t>Đào Ngọc Sang</t>
+  </si>
+  <si>
+    <t>0888271727</t>
+  </si>
+  <si>
+    <t>daongocsang555@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Biên bản họp chi bộ.
+- Giấy đề nghị chuyển sinh hoạt đảng.
+- Bản kiểm điểm khi chuyển sinh hoạt đảng.
+- Bản giải trình về việc chậm chuyển sinh hoạt đảng. 
+Hồ sơ được gửi bởi Chi bộ Sinh viên 7.  </t>
+  </si>
+  <si>
+    <t>2023-10-16 10:36:55</t>
+  </si>
+  <si>
+    <t>6E0F2993B0</t>
+  </si>
+  <si>
+    <t>Đinh Duy Khang</t>
+  </si>
+  <si>
+    <t>0355026739</t>
+  </si>
+  <si>
+    <t>talakhang@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Biên bản họp chi bộ.
+- Giấy đề nghị chuyển sinh hoạt đảng.
+- Bản kiểm điểm khi chuyển sinh hoạt đảng. 
+Hồ sơ được gửi bởi Chi bộ Sinh viên 7.  </t>
+  </si>
+  <si>
+    <t>2023-10-16 10:34:39</t>
+  </si>
+  <si>
+    <t>C85E49007B</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Khanh</t>
+  </si>
+  <si>
+    <t>0397154114</t>
+  </si>
+  <si>
+    <t>duykhanh541999@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Biên bản họp chi bộ.
+- Giấy đề nghị chuyển sinh hoạt đảng.
+- Bản kiểm điểm khi chuyển sinh hoạt đảng.
+- Hợp đồng lao động với công ty.
+- Bản giải trình về việc chuyển sinh hoạt đảng trễ.
+Hồ sơ được gửi bởi Chi bộ Sinh viên 7.  </t>
+  </si>
+  <si>
+    <t>2023-10-16 10:30:06</t>
+  </si>
+  <si>
+    <t>F4E3EF9855</t>
+  </si>
+  <si>
+    <t>Huỳnh Phúc Thịnh</t>
+  </si>
+  <si>
+    <t>thinhhpspkt@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Biên bản họp chi bộ.
+- Giấy đề nghị chuyển sinh hoạt đảng.
+- Bản kiểm điểm khi chuyển sinh hoạt đảng.
+- Bản tường trình về việc chuyển sinh hoạt đảng trễ. 
+Hồ sơ được gửi bởi Chi bộ Sinh viên 7.  </t>
+  </si>
+  <si>
+    <t>2023-10-16 10:27:10</t>
+  </si>
+  <si>
+    <t>358F5AB7CB</t>
+  </si>
+  <si>
+    <t>Võ Hồng Phúc</t>
+  </si>
+  <si>
+    <t>0962942908</t>
+  </si>
+  <si>
+    <t>phucwieu@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Biên bản họp chi bộ.
+- Giấy đề nghị chuyển sinh hoạt đảng.
+- Bản kiểm điểm khi chuyển sinh hoạt đảng.
+- Bản giải trình về việc chuyển sinh hoạt đảng trễ. 
+Hồ sơ được gửi bởi Chi bộ Sinh viên 7.  </t>
+  </si>
+  <si>
+    <t>2023-10-16 10:19:40</t>
+  </si>
+  <si>
+    <t>9ECB0EF52A</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Tài</t>
+  </si>
+  <si>
+    <t>0372768458</t>
+  </si>
+  <si>
+    <t>nttai96@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Biên bản họp chi bộ.
+- Giấy đề nghị chuyển sinh hoạt đảng.
+- Bản kiểm điểm khi chuyển sinh hoạt đảng.
+- Bản tường trình về việc chuyển sinh hoạt Đảng. 
+Hồ sơ được gửi bởi Chi bộ Sinh viên 7.  </t>
+  </si>
+  <si>
+    <t>2023-10-16 10:13:14</t>
+  </si>
+  <si>
+    <t>15E5B90E02</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Phước</t>
+  </si>
+  <si>
+    <t>0376781543</t>
+  </si>
+  <si>
+    <t>vectornguyen76@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Biên bản họp chi bộ.
+- Giấy đề nghị chuyển sinh hoạt đảng.
+- Bản kiểm điểm khi chuyển sinh hoạt đảng. 
+- Giải trình về việc chuyển sinh hoạt trễ.
+Hồ sơ được gửi bởi Chi bộ Sinh viên 1.  </t>
+  </si>
+  <si>
+    <t>2023-10-16 10:09:11</t>
+  </si>
+  <si>
+    <t>134AE8CB0C</t>
+  </si>
+  <si>
+    <t>Trần Tấn Ban</t>
+  </si>
+  <si>
+    <t>0914363183</t>
+  </si>
+  <si>
+    <t>trantanban99@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Biên bản họp chi bộ.
+- Giấy đề nghị chuyển sinh hoạt đảng.
+- Bản kiểm điểm khi chuyển sinh hoạt đảng.
+- Giải trình về việc chuyển sinh hoạt đảng trễ. 
+Hồ sơ được gửi bởi Chi bộ Sinh viên 1.  </t>
+  </si>
+  <si>
+    <t>2023-10-16 10:05:33</t>
+  </si>
+  <si>
+    <t>A568E1D386</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Hiếu</t>
+  </si>
+  <si>
+    <t>0353113056</t>
+  </si>
+  <si>
+    <t>ngochieu2120@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Biên bản họp chi bộ.
+- Giấy đề nghị chuyển sinh hoạt đảng.
+- Bản kiểm điểm khi chuyển sinh hoạt đảng.
+- Giải trình về việc chuyển sinh hoạt trễ. 
+Hồ sơ được gửi bởi Chi bộ Sinh viên 1.  </t>
+  </si>
+  <si>
+    <t>2023-10-16 10:02:36</t>
+  </si>
+  <si>
+    <t>C3AD447107</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Hùng</t>
+  </si>
+  <si>
+    <t>0967288891</t>
+  </si>
+  <si>
+    <t>nguyenduchungspkt@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-10-16 08:54:55</t>
+  </si>
+  <si>
+    <t>2023-10-16 09:03:36</t>
+  </si>
+  <si>
+    <t>6200BA29D5</t>
+  </si>
+  <si>
+    <t>Nguyễn Phan Thanh</t>
+  </si>
+  <si>
+    <t>0907489309</t>
+  </si>
+  <si>
+    <t>thanhnp@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Báo cáo về kết quả công tác lấy ý kiến của chi bộ về việc xóa tên đồng chí Phạm Hữu Đạt</t>
+  </si>
+  <si>
+    <t>2023-10-12 11:33:36</t>
+  </si>
+  <si>
+    <t>1C2F55279A</t>
+  </si>
+  <si>
+    <t>Lê Tấn Kiên</t>
+  </si>
+  <si>
+    <t>0943243425</t>
+  </si>
+  <si>
+    <t>tankien2k2@gmail.com</t>
+  </si>
+  <si>
+    <t>Xoá tên 12 đồng chí Sinh Viên 3 bỏ sinh hoạt từ lâu
+Về xóa tên Đảng viên Lục Đạt Huy-Sinh viên 3	
+Về xóa tên Đảng viên Huỳnh Văn Long-Sinh viên 3	
+Về xóa tên Đảng viên Lê Trung Hậu-Sinh viên 3	
+Về xóa tên Đảng viên Nguyễn Thị Tố Anh-Sinh viên 3	
+Về xóa tên Đảng viên Bùi Nguyễn Hồng Nhung-Sinh viên 3
+Về xóa tên Đảng viên Đặng Minh Hòa-Sinh viên 3
+Về xóa tên Đảng viên Phan Văn Quân-Sinh viên 3
+Về xóa tên Đảng viên Hoàng Nguyễn Quang Linh-Sinh viên 3
+Về xóa tên Đảng viên Trương Thanh Sang-Sinh viên 3
+Về xóa tên Đảng viên Lê Thanh Phong-Sinh viên 3
+Về xóa tên Đảng viên Trần Hữu Lợi-Sinh viên 3
+Về xóa tên Đảng viên Nguyễn Thanh Nhân-Sinh viên 3</t>
+  </si>
+  <si>
+    <t>2023-10-11 09:44:37</t>
+  </si>
+  <si>
+    <t>2023-10-12 20:25:38</t>
+  </si>
+  <si>
+    <t>6C34153CC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giấy chứng nhận lớp bồi dưỡng nhận thức về đảng của quần chúng Nguyễn Thị Trúc Đào </t>
+  </si>
+  <si>
+    <t>2023-10-09 10:33:51</t>
+  </si>
+  <si>
+    <t>2023-10-09 10:34:06</t>
+  </si>
+  <si>
+    <t>3464FFA04F</t>
+  </si>
+  <si>
+    <t>Phạm Hồng Ngân</t>
+  </si>
+  <si>
+    <t>0969636272</t>
+  </si>
+  <si>
+    <t>hongngan21071997@gmail.com</t>
+  </si>
+  <si>
+    <t>1. Thẻ đảng
+2. Quyết định cấp thẻ đảng
+3. Quyết định kết nạp Đảng viên
+(Hồ sơ đề nghị làm lại thẻ đảng do quê quán bị sai)</t>
+  </si>
+  <si>
+    <t>2023-10-09 10:30:30</t>
+  </si>
+  <si>
+    <t>2023-10-09 10:34:27</t>
+  </si>
+  <si>
+    <t>2023-10-16 15:50:57</t>
+  </si>
+  <si>
+    <t>025DF0094B</t>
+  </si>
+  <si>
+    <t>Trần Thị Ngân</t>
+  </si>
+  <si>
+    <t>0919033106</t>
+  </si>
+  <si>
+    <t>ngantran030366@gmail.com</t>
+  </si>
+  <si>
+    <t>Trạm Y tế</t>
+  </si>
+  <si>
+    <t>1. Giấy đề nghị chuyển sinh hoạt Đảng, Bản tự kiểm điểm khi chuyển sinh hoạt
+2. Bản kiểm điểm 9 tháng năm 2023
+3. Bản kiểm điểm cá nhân năm 2020</t>
+  </si>
+  <si>
+    <t>2023-10-09 09:36:16</t>
+  </si>
+  <si>
+    <t>2023-10-09 09:36:50</t>
+  </si>
+  <si>
+    <t>C284355FFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01: Biên bản họp mất thẻ Đảng viên (2022)
+02: Hồ sơ quy hoạch chi bộ (Công văn, biên bản kiểm phiếu, lý lịch 04 đảng viên được quy hoạch)
+</t>
+  </si>
+  <si>
+    <t>2023-10-06 10:21:29</t>
+  </si>
+  <si>
+    <t>2023-10-06 10:22:59</t>
+  </si>
+  <si>
+    <t>A91E683677</t>
+  </si>
+  <si>
+    <t>Trần Nhật Quỳnh</t>
+  </si>
+  <si>
+    <t>0398904301</t>
+  </si>
+  <si>
+    <t>23143343@student.hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Hồ sơ tiếp nhận Đảng viên (chuyển đến)</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Trần Nhật Quỳnh; MSSV: 23143343 - Sinh viên Công nghệ chế tạo máy - Khoa Cơ khí Chế tạo máy
+Chi bộ sinh hoạt: Chi bộ sinh viên 1
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ Thầy Nguyễn Thanh Tân - SĐT &amp; Zalo: 0938004496
+2) Đồng chí Phó Bí Thư chi bộ Anh Nguyễn Trung Thành SĐT &amp; Zalo - 0383144705</t>
+  </si>
+  <si>
+    <t>2023-10-03 17:46:12</t>
+  </si>
+  <si>
+    <t>2023-10-03 17:46:53</t>
+  </si>
+  <si>
+    <t>2023-10-03 17:47:26</t>
+  </si>
+  <si>
+    <t>2023-10-09 16:35:29</t>
+  </si>
+  <si>
+    <t>2D690DD5EE</t>
+  </si>
+  <si>
+    <t>Lương Thị Ngọc Trâm</t>
+  </si>
+  <si>
+    <t>0337201126</t>
+  </si>
+  <si>
+    <t>23109158@student.hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Lương Thị Ngọc Trâm; MSSV: 23109158 - Sinh viên Công nghệ may - Khoa Thời Trang và Du lịch
+Chi bộ sinh hoạt: Chi bộ sinh viên 4
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ Thầy Nguyễn Hữu Trung - SĐT &amp; Zalo: 0908617108 
+2) Đồng chí Phó Bí Thư chi bộ Anh Nguyễn Như Tú - 0339217372</t>
+  </si>
+  <si>
+    <t>2023-10-03 17:33:08</t>
+  </si>
+  <si>
+    <t>2023-10-03 17:33:37</t>
+  </si>
+  <si>
+    <t>2023-10-03 17:44:24</t>
+  </si>
+  <si>
+    <t>2023-10-09 16:35:10</t>
+  </si>
+  <si>
+    <t>6E7F16814D</t>
+  </si>
+  <si>
+    <t>Võ Minh Thái</t>
+  </si>
+  <si>
+    <t>0386096077</t>
+  </si>
+  <si>
+    <t>23158141@student.hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Võ Minh Thái
+MSSV: 23158141 - Sinh viên Công nghệ Kỹ thuật in - Khoa In và Truyền thông
+Chi bộ sinh hoạt: Chi bộ sinh viên 2
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ cô Nguyễn Hà Trang - 0939281155
+2) Đồng chí Phó Bí Thư chi bộ Thầy Nguyễn Văn Nhật - 0369197503</t>
+  </si>
+  <si>
+    <t>2023-10-03 17:27:24</t>
+  </si>
+  <si>
+    <t>2023-10-03 17:28:03</t>
+  </si>
+  <si>
+    <t>2023-10-14 11:40:43</t>
+  </si>
+  <si>
+    <t>66829566A0</t>
+  </si>
+  <si>
+    <t>Trần Quốc Hậu</t>
+  </si>
+  <si>
+    <t>0866467413</t>
+  </si>
+  <si>
+    <t>23142290@student.hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy Trường đã tiếp nhận hồ sơ chuyển sinh hoạt đến của đảng viên Trần Quốc Hậu
+MSSV: 23142290 - Sinh viên Công nghệ Kỹ thuật Điện - Điện tử - Khoa Điện - Điện tử.
+Chi bộ sinh hoạt: Chi bộ sinh viên 3
+Đồng chí vui lòng liên hệ chi bộ để được tham gia sinh hoạt trong vòng 7 ngày kể từ ngày nhận được thông báo này
+Thông tin liên hệ chi bộ:
+1) Đồng chí Bí Thư chi bộ Thầy Nguyễn Phan Thanh - SĐT 090.748.9309
+2) Đồng chí Phó Bí Thư chi bộ - Lê Tấn Kiên - 035.227.8652</t>
+  </si>
+  <si>
+    <t>2023-10-03 16:50:21</t>
+  </si>
+  <si>
+    <t>2023-10-03 16:51:03</t>
+  </si>
+  <si>
+    <t>2023-10-03 17:18:26</t>
+  </si>
+  <si>
+    <t>2023-10-09 16:34:31</t>
+  </si>
+  <si>
+    <t>C2709D4BC4</t>
+  </si>
+  <si>
+    <t>0352278652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Hồ sơ chuyển sinh hoạt đảng của đồng chí: Trần Trung Nam chi tiết gồm: Bản kiểm điểm cá nhân 08 tháng đầu năm 2023; Giấy đề nghị chuyển sinh hoạt Đảng;
+Giấy giải trình chuyển sinh hoạt Đảng trễ; Bản tự kiểm điểm khi chuyển sinh hoạt Đảng;
+2) Hồ sơ chuyển sinh hoạt đảng của đồng chí: Phạm Vương Hoàng Nhật chi tiết gồm: Bản kiểm điểm cá nhân 08 tháng đầu năm 2023; Giấy đề nghị chuyển sinh hoạt Đảng; Giấy giải trình chuyển sinh hoạt Đảng trễ; Bản tự kiểm điểm khi chuyển sinh hoạt Đảng;
+</t>
+  </si>
+  <si>
+    <t>2023-10-03 15:52:25</t>
+  </si>
+  <si>
+    <t>2023-10-10 16:17:34</t>
+  </si>
+  <si>
+    <t>48E19029C6</t>
+  </si>
+  <si>
+    <t>Hồ sơ chuyển Đảng của đồng chí Võ Nhựt Minh hồ sơ bao gồm: Giấy đề nghị chuyển sinh hoạt Đảng; Bản tự kiểm điểm khi chuyển sinh hoạt; Biên bản họp chi bộ; Giải trình về việc chuyển sinh hoạt trễ hạn.</t>
+  </si>
+  <si>
+    <t>2023-10-03 15:42:56</t>
+  </si>
+  <si>
+    <t>2023-10-09 18:24:36</t>
+  </si>
+  <si>
+    <t>2023-10-10 20:50:41</t>
+  </si>
+  <si>
+    <t>11D2C73A9C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Hồ sơ chuyển Đảng chính thức của Đào Huyền Trang
+2) Hồ sơ chuyển Đảng chính thức của Thái Thị Ngọc Giàu
+3) Hồ sơ chuyển Đảng chính thức của Lê Nguyễn Như Quỳnh
+4) Hồ sơ chuyển Đảng chính thức của Nguyễn Thị Phương Duyên
+5) Nhờ Đ/c Đức xem xét và có hướng dẫn về việc xử lý hồ sơ của Đảng viên dự bị Khúc Thị Như Phương
+</t>
+  </si>
+  <si>
+    <t>2023-10-03 15:33:50</t>
+  </si>
+  <si>
+    <t>2023-10-09 18:28:19</t>
+  </si>
+  <si>
+    <t>C95710C539</t>
+  </si>
+  <si>
+    <t>Nguyễn Hà Trang</t>
+  </si>
+  <si>
+    <t>1) Hồ sơ chuyển Đảng chính thức của Trần Thị Ngọc Trâm
+2) Hồ sơ chuyển Đảng chính thức của Đỗ Khánh Đạt
+3) Hồ sơ chuyển Đảng chính thức của Nguyễn Ngô Mỹ Anh ( Chưa có lớp Đảng viên mới trong dữ liệu)</t>
+  </si>
+  <si>
+    <t>2023-10-03 15:30:50</t>
+  </si>
+  <si>
+    <t>2023-10-09 18:25:13</t>
+  </si>
+  <si>
+    <t>2023-10-24 14:09:49</t>
+  </si>
+  <si>
+    <t>84D65B4AA0</t>
+  </si>
+  <si>
+    <t>Võ Quốc Bảo</t>
+  </si>
+  <si>
+    <t>0348974832</t>
+  </si>
+  <si>
+    <t>voquocbao215@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nộp ngày 10/3 bởi thầy Trung </t>
+  </si>
+  <si>
+    <t>Văn phòng Đảng ủy trả hồ sơ về</t>
+  </si>
+  <si>
+    <t>2023-09-26 08:56:12</t>
+  </si>
+  <si>
+    <t>2023-09-27 16:57:35</t>
   </si>
 </sst>
 </file>
@@ -539,7 +3330,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,7 +3420,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="0">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>26</v>
@@ -647,14 +3438,12 @@
         <v>30</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="0" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q2" s="0"/>
       <c r="R2" s="0"/>
     </row>
     <row r="3" spans="1:18">
@@ -671,16 +3460,16 @@
         <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" s="0">
         <v>1</v>
@@ -689,54 +3478,50 @@
         <v>26</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I4" s="0">
         <v>1</v>
@@ -745,215 +3530,5589 @@
         <v>26</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="0"/>
-      <c r="P4" s="0"/>
+        <v>50</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>51</v>
+      </c>
       <c r="Q4" s="0"/>
       <c r="R4" s="0"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I5" s="0">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>53</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="I6" s="0">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>26</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="0"/>
-      <c r="O6" s="0"/>
-      <c r="P6" s="0"/>
+        <v>69</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>71</v>
+      </c>
       <c r="Q6" s="0"/>
       <c r="R6" s="0"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="I7" s="0">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
+        <v>80</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>82</v>
+      </c>
       <c r="P7" s="0"/>
       <c r="Q7" s="0"/>
       <c r="R7" s="0"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="0" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="I8" s="0">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="0"/>
+        <v>91</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>92</v>
+      </c>
       <c r="O8" s="0"/>
       <c r="P8" s="0"/>
       <c r="Q8" s="0"/>
       <c r="R8" s="0"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="0">
+        <v>1</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="0">
+        <v>1</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="0">
+        <v>1</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="0">
+        <v>1</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="0">
+        <v>1</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="0">
+        <v>1</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" s="0">
+        <v>1</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" s="0">
+        <v>1</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="I18" s="0">
+        <v>1</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="I19" s="0">
+        <v>1</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="I20" s="0">
+        <v>1</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I22" s="0">
+        <v>1</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="I23" s="0">
+        <v>1</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="0"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="I24" s="0">
+        <v>1</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="I25" s="0">
+        <v>1</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="0">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="I26" s="0">
+        <v>1</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="I27" s="0">
+        <v>1</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="I28" s="0">
+        <v>1</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="I29" s="0">
+        <v>1</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="I30" s="0">
+        <v>1</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="I31" s="0">
+        <v>1</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="I32" s="0">
+        <v>1</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="I33" s="0">
+        <v>2</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C34" s="0">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="I34" s="0">
+        <v>1</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="0"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q36" s="0"/>
+      <c r="R36" s="0"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="I37" s="0">
+        <v>1</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="I38" s="0">
+        <v>1</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="0"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="I39" s="0">
+        <v>4</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="O39" s="0"/>
+      <c r="P39" s="0"/>
+      <c r="Q39" s="0"/>
+      <c r="R39" s="0"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="I40" s="0">
+        <v>1</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q40" s="0"/>
+      <c r="R40" s="0"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C41" s="0">
+        <v>0</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="I41" s="0">
+        <v>1</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="I42" s="0">
+        <v>1</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="N42" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q42" s="0"/>
+      <c r="R42" s="0"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="I43" s="0">
+        <v>1</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="I44" s="0">
+        <v>1</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q44" s="0"/>
+      <c r="R44" s="0"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="I45" s="0">
+        <v>1</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q45" s="0"/>
+      <c r="R45" s="0"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="I46" s="0">
+        <v>2</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q46" s="0"/>
+      <c r="R46" s="0"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="I47" s="0">
+        <v>1</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="N47" s="0"/>
+      <c r="O47" s="0"/>
+      <c r="P47" s="0"/>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="0"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="I48" s="0">
+        <v>1</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q48" s="0"/>
+      <c r="R48" s="0"/>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="I49" s="0">
+        <v>2</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="R49" s="0" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="R50" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="I51" s="0">
+        <v>2</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q51" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="R51" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="I52" s="0">
+        <v>2</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="O52" s="0"/>
+      <c r="P52" s="0"/>
+      <c r="Q52" s="0"/>
+      <c r="R52" s="0"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="I53" s="0">
+        <v>3</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="O53" s="0"/>
+      <c r="P53" s="0"/>
+      <c r="Q53" s="0"/>
+      <c r="R53" s="0"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="I54" s="0">
+        <v>2</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="P54" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q54" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="R54" s="0" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="I55" s="0">
+        <v>2</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="O55" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="P55" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q55" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="R55" s="0" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="I56" s="0">
+        <v>2</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="P56" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q56" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="R56" s="0" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="I57" s="0">
+        <v>2</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="N57" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="P57" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q57" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="R57" s="0" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="0">
+        <v>5741197720</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="I58" s="0">
+        <v>2</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="N58" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="O58" s="0"/>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="I59" s="0">
+        <v>2</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="O59" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="P59" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q59" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="R59" s="0" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="I60" s="0">
+        <v>2</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="O60" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="P60" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q60" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="R60" s="0" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="I61" s="0">
+        <v>2</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="O61" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="P61" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q61" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="R61" s="0" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="C62" s="0">
+        <v>0</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="I62" s="0">
+        <v>2</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="N62" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="O62" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="P62" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q62" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="R62" s="0" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="I63" s="0">
+        <v>2</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="O63" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="P63" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q63" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="R63" s="0" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="I64" s="0">
+        <v>4</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="O64" s="0"/>
+      <c r="P64" s="0"/>
+      <c r="Q64" s="0"/>
+      <c r="R64" s="0"/>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="I65" s="0">
+        <v>1</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M65" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="N65" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="O65" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="P65" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q65" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="R65" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="I66" s="0">
+        <v>2</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="N66" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="O66" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="P66" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q66" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="R66" s="0" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="I67" s="0">
+        <v>2</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L67" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M67" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="N67" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="O67" s="0"/>
+      <c r="P67" s="0"/>
+      <c r="Q67" s="0"/>
+      <c r="R67" s="0"/>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="I68" s="0">
+        <v>1</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L68" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="N68" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="O68" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="P68" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q68" s="0"/>
+      <c r="R68" s="0"/>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M69" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="N69" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="O69" s="0"/>
+      <c r="P69" s="0"/>
+      <c r="Q69" s="0"/>
+      <c r="R69" s="0"/>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="I70" s="0">
+        <v>1</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L70" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M70" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="N70" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="O70" s="0"/>
+      <c r="P70" s="0"/>
+      <c r="Q70" s="0"/>
+      <c r="R70" s="0"/>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M71" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="N71" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="O71" s="0"/>
+      <c r="P71" s="0"/>
+      <c r="Q71" s="0"/>
+      <c r="R71" s="0"/>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L72" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M72" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="N72" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="O72" s="0"/>
+      <c r="P72" s="0"/>
+      <c r="Q72" s="0"/>
+      <c r="R72" s="0"/>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="I73" s="0">
+        <v>1</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M73" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="N73" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="O73" s="0"/>
+      <c r="P73" s="0"/>
+      <c r="Q73" s="0"/>
+      <c r="R73" s="0"/>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="I74" s="0">
+        <v>1</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M74" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="N74" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="O74" s="0"/>
+      <c r="P74" s="0"/>
+      <c r="Q74" s="0"/>
+      <c r="R74" s="0"/>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="I75" s="0">
+        <v>1</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="N75" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="O75" s="0"/>
+      <c r="P75" s="0"/>
+      <c r="Q75" s="0"/>
+      <c r="R75" s="0"/>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L76" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M76" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="N76" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="O76" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="P76" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q76" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="R76" s="0" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="I77" s="0">
+        <v>1</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M77" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="N77" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="O77" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="P77" s="0"/>
+      <c r="Q77" s="0"/>
+      <c r="R77" s="0"/>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="I78" s="0">
+        <v>1</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L78" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M78" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="N78" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="O78" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="P78" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q78" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="R78" s="0" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="C79" s="0">
+        <v>0</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="I79" s="0">
+        <v>1</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M79" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="N79" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="O79" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="P79" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q79" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="R79" s="0" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L80" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="N80" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="O80" s="0"/>
+      <c r="P80" s="0"/>
+      <c r="Q80" s="0"/>
+      <c r="R80" s="0"/>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="M81" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="N81" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="O81" s="0"/>
+      <c r="P81" s="0"/>
+      <c r="Q81" s="0"/>
+      <c r="R81" s="0"/>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L82" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="N82" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="O82" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="P82" s="0"/>
+      <c r="Q82" s="0"/>
+      <c r="R82" s="0"/>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="C83" s="0">
+        <v>0</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="I83" s="0">
+        <v>1</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L83" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M83" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="N83" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="O83" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="P83" s="0"/>
+      <c r="Q83" s="0"/>
+      <c r="R83" s="0"/>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="I84" s="0">
+        <v>1</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L84" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M84" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="N84" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="O84" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="P84" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q84" s="0"/>
+      <c r="R84" s="0"/>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" s="0">
+        <v>5515290307</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="I85" s="0">
+        <v>1</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L85" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M85" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="N85" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="O85" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="P85" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q85" s="0"/>
+      <c r="R85" s="0"/>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="I86" s="0">
+        <v>1</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L86" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M86" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="N86" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="O86" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="P86" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q86" s="0"/>
+      <c r="R86" s="0"/>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="I87" s="0">
+        <v>1</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L87" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M87" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="N87" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="O87" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="P87" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q87" s="0"/>
+      <c r="R87" s="0"/>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="I88" s="0">
+        <v>1</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L88" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M88" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="N88" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="O88" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="P88" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q88" s="0"/>
+      <c r="R88" s="0"/>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="I89" s="0">
+        <v>1</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L89" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M89" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="N89" s="0"/>
+      <c r="O89" s="0"/>
+      <c r="P89" s="0"/>
+      <c r="Q89" s="0"/>
+      <c r="R89" s="0"/>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="I90" s="0">
+        <v>1</v>
+      </c>
+      <c r="J90" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L90" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M90" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="N90" s="0"/>
+      <c r="O90" s="0"/>
+      <c r="P90" s="0"/>
+      <c r="Q90" s="0"/>
+      <c r="R90" s="0"/>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="I91" s="0">
+        <v>1</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M91" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="N91" s="0"/>
+      <c r="O91" s="0"/>
+      <c r="P91" s="0"/>
+      <c r="Q91" s="0"/>
+      <c r="R91" s="0"/>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="C92" s="0">
+        <v>0</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="I92" s="0">
+        <v>1</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L92" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M92" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="N92" s="0"/>
+      <c r="O92" s="0"/>
+      <c r="P92" s="0"/>
+      <c r="Q92" s="0"/>
+      <c r="R92" s="0"/>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="I93" s="0">
+        <v>1</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L93" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M93" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="N93" s="0"/>
+      <c r="O93" s="0"/>
+      <c r="P93" s="0"/>
+      <c r="Q93" s="0"/>
+      <c r="R93" s="0"/>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H94" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="I94" s="0">
+        <v>1</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L94" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M94" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="N94" s="0"/>
+      <c r="O94" s="0"/>
+      <c r="P94" s="0"/>
+      <c r="Q94" s="0"/>
+      <c r="R94" s="0"/>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H95" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="I95" s="0">
+        <v>1</v>
+      </c>
+      <c r="J95" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L95" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M95" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="N95" s="0"/>
+      <c r="O95" s="0"/>
+      <c r="P95" s="0"/>
+      <c r="Q95" s="0"/>
+      <c r="R95" s="0"/>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G96" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H96" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="I96" s="0">
+        <v>1</v>
+      </c>
+      <c r="J96" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L96" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M96" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="N96" s="0"/>
+      <c r="O96" s="0"/>
+      <c r="P96" s="0"/>
+      <c r="Q96" s="0"/>
+      <c r="R96" s="0"/>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G97" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="I97" s="0">
+        <v>1</v>
+      </c>
+      <c r="J97" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K97" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L97" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M97" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="N97" s="0"/>
+      <c r="O97" s="0"/>
+      <c r="P97" s="0"/>
+      <c r="Q97" s="0"/>
+      <c r="R97" s="0"/>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G98" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J98" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K98" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L98" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M98" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="N98" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="O98" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="P98" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q98" s="0"/>
+      <c r="R98" s="0"/>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="I99" s="0">
+        <v>1</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L99" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M99" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="N99" s="0"/>
+      <c r="O99" s="0"/>
+      <c r="P99" s="0"/>
+      <c r="Q99" s="0"/>
+      <c r="R99" s="0"/>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>785</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="I100" s="0">
+        <v>12</v>
+      </c>
+      <c r="J100" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L100" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M100" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="N100" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="O100" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="P100" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q100" s="0"/>
+      <c r="R100" s="0"/>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H101" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="I101" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J101" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K101" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L101" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M101" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="N101" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="O101" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="P101" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="Q101" s="0"/>
+      <c r="R101" s="0"/>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="I102" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J102" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K102" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L102" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M102" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="N102" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="O102" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="P102" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="Q102" s="0"/>
+      <c r="R102" s="0"/>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="I103" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J103" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K103" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L103" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M103" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="N103" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="O103" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="P103" s="0"/>
+      <c r="Q103" s="0"/>
+      <c r="R103" s="0"/>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G104" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="I104" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="J104" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K104" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L104" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M104" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="N104" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="O104" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="P104" s="0"/>
+      <c r="Q104" s="0"/>
+      <c r="R104" s="0"/>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G105" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="I105" s="0">
+        <v>1</v>
+      </c>
+      <c r="J105" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K105" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L105" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M105" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="N105" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="O105" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="P105" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="Q105" s="0"/>
+      <c r="R105" s="0"/>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="I106" s="0">
+        <v>1</v>
+      </c>
+      <c r="J106" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K106" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L106" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M106" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="N106" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="O106" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="P106" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="Q106" s="0"/>
+      <c r="R106" s="0"/>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="H107" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="I107" s="0">
+        <v>1</v>
+      </c>
+      <c r="J107" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K107" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L107" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M107" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="N107" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="O107" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="P107" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q107" s="0"/>
+      <c r="R107" s="0"/>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="H108" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="I108" s="0">
+        <v>1</v>
+      </c>
+      <c r="J108" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K108" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L108" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M108" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="N108" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="O108" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="P108" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="Q108" s="0"/>
+      <c r="R108" s="0"/>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H109" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="I109" s="0">
+        <v>2</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L109" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M109" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="N109" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="O109" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="P109" s="0"/>
+      <c r="Q109" s="0"/>
+      <c r="R109" s="0"/>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="I110" s="0">
+        <v>1</v>
+      </c>
+      <c r="J110" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K110" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L110" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M110" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="N110" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="O110" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="P110" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="Q110" s="0"/>
+      <c r="R110" s="0"/>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="I111" s="0">
+        <v>5</v>
+      </c>
+      <c r="J111" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L111" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M111" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="N111" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="O111" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="P111" s="0" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q111" s="0"/>
+      <c r="R111" s="0"/>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H112" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="I112" s="0">
+        <v>3</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K112" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L112" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M112" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="N112" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="O112" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="P112" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="Q112" s="0"/>
+      <c r="R112" s="0"/>
+    </row>
+    <row r="113" spans="1:18">
+      <c r="A113" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="I113" s="0">
+        <v>1</v>
+      </c>
+      <c r="J113" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K113" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="L113" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="M113" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="N113" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="O113" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="P113" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="Q113" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="R113" s="0"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
